--- a/InputData/trans/AIiBCbVT/Ann Impvmt in Bat Cap by Veh Type.xlsx
+++ b/InputData/trans/AIiBCbVT/Ann Impvmt in Bat Cap by Veh Type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\IL\trans\AIiBCbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\AIiBCbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{437843C2-6FB4-46DA-8D4A-AE21BE021DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBE6D39-0A27-45C8-9DE2-3E3243F2013A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="12645" xr2:uid="{374B4FBC-450D-4288-A34A-EB3F11585D06}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{374B4FBC-450D-4288-A34A-EB3F11585D06}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="225">
   <si>
     <t>AIiBCbVT Annual Improvement in Battery Capacity by Vehicle Type</t>
   </si>
@@ -815,9 +815,6 @@
   <si>
     <t>Estimated freight vehicle miles traveled by vehicle class</t>
   </si>
-  <si>
-    <t>Illinois</t>
-  </si>
 </sst>
 </file>
 
@@ -828,7 +825,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1306,7 +1303,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1494,28 +1491,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1548,15 +1536,23 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2146,68 +2142,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C572C255-1CE5-4B90-9F93-9029BE5772B2}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="100">
-        <v>45391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="114" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="88">
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="99" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" s="114" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="88">
         <v>2024</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>224</v>
       </c>
@@ -2225,9 +2215,9 @@
       <selection activeCell="R186" sqref="R186:AF187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="A1" s="55" t="s">
         <v>88</v>
       </c>
@@ -2266,7 +2256,7 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33">
       <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
@@ -2307,7 +2297,7 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33">
       <c r="A3" s="3" t="s">
         <v>92</v>
       </c>
@@ -2346,7 +2336,7 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2385,7 +2375,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33">
       <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
@@ -2424,7 +2414,7 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2459,7 +2449,7 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33">
       <c r="A7" s="58" t="s">
         <v>94</v>
       </c>
@@ -2490,7 +2480,7 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -2536,7 +2526,7 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -2582,7 +2572,7 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -2628,7 +2618,7 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -2674,7 +2664,7 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -2721,7 +2711,7 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -2767,7 +2757,7 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -2813,7 +2803,7 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -2859,7 +2849,7 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -2905,7 +2895,7 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -2951,7 +2941,7 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
@@ -2998,7 +2988,7 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -3044,7 +3034,7 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33">
       <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
@@ -3090,7 +3080,7 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33">
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
@@ -3136,7 +3126,7 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -3182,7 +3172,7 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -3228,7 +3218,7 @@
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -3275,7 +3265,7 @@
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -3321,7 +3311,7 @@
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -3367,7 +3357,7 @@
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
@@ -3413,7 +3403,7 @@
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33">
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
@@ -3459,7 +3449,7 @@
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33">
       <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
@@ -3505,7 +3495,7 @@
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
@@ -3552,7 +3542,7 @@
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33">
       <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
@@ -3598,7 +3588,7 @@
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33">
       <c r="A32" s="3" t="s">
         <v>59</v>
       </c>
@@ -3644,7 +3634,7 @@
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3678,7 +3668,7 @@
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3712,7 +3702,7 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33">
       <c r="A35" s="58" t="s">
         <v>95</v>
       </c>
@@ -3758,7 +3748,7 @@
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -3804,7 +3794,7 @@
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -3850,7 +3840,7 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33">
       <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
@@ -3896,7 +3886,7 @@
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -3943,7 +3933,7 @@
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33">
       <c r="A40" s="3" t="s">
         <v>65</v>
       </c>
@@ -3989,7 +3979,7 @@
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -4035,7 +4025,7 @@
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33">
       <c r="A42" s="3" t="s">
         <v>67</v>
       </c>
@@ -4081,7 +4071,7 @@
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -4127,7 +4117,7 @@
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33">
       <c r="A44" s="3" t="s">
         <v>69</v>
       </c>
@@ -4173,7 +4163,7 @@
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -4220,7 +4210,7 @@
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33">
       <c r="A46" s="3" t="s">
         <v>71</v>
       </c>
@@ -4266,7 +4256,7 @@
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -4312,7 +4302,7 @@
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33">
       <c r="A48" s="3" t="s">
         <v>73</v>
       </c>
@@ -4358,7 +4348,7 @@
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -4404,7 +4394,7 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33">
       <c r="A50" s="3" t="s">
         <v>75</v>
       </c>
@@ -4450,7 +4440,7 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -4497,7 +4487,7 @@
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33">
       <c r="A52" s="3" t="s">
         <v>77</v>
       </c>
@@ -4543,7 +4533,7 @@
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -4589,7 +4579,7 @@
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33">
       <c r="A54" s="3" t="s">
         <v>79</v>
       </c>
@@ -4635,7 +4625,7 @@
       <c r="AF54" s="3"/>
       <c r="AG54" s="3"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -4681,7 +4671,7 @@
       <c r="AF55" s="3"/>
       <c r="AG55" s="3"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33">
       <c r="A56" s="3" t="s">
         <v>81</v>
       </c>
@@ -4727,7 +4717,7 @@
       <c r="AF56" s="3"/>
       <c r="AG56" s="3"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33">
       <c r="A57" s="3" t="s">
         <v>82</v>
       </c>
@@ -4774,7 +4764,7 @@
       <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33">
       <c r="A58" s="3" t="s">
         <v>83</v>
       </c>
@@ -4820,7 +4810,7 @@
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33">
       <c r="A59" s="3" t="s">
         <v>84</v>
       </c>
@@ -4866,7 +4856,7 @@
       <c r="AF59" s="3"/>
       <c r="AG59" s="3"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4900,7 +4890,7 @@
       <c r="AF60" s="3"/>
       <c r="AG60" s="3"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33">
       <c r="A61" s="53" t="s">
         <v>96</v>
       </c>
@@ -4936,7 +4926,7 @@
       <c r="AF61" s="3"/>
       <c r="AG61" s="3"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33">
       <c r="A62" s="49" t="s">
         <v>36</v>
       </c>
@@ -4972,7 +4962,7 @@
       <c r="AF62" s="3"/>
       <c r="AG62" s="3"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33">
       <c r="A63" s="3"/>
       <c r="C63" s="2">
         <v>2020</v>
@@ -5037,7 +5027,7 @@
       <c r="AF63" s="3"/>
       <c r="AG63" s="3"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33">
       <c r="A64" s="54" t="s">
         <v>37</v>
       </c>
@@ -5121,7 +5111,7 @@
       <c r="AF64" s="3"/>
       <c r="AG64" s="3"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33">
       <c r="A65" s="54" t="s">
         <v>38</v>
       </c>
@@ -5205,7 +5195,7 @@
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33">
       <c r="A66" s="54" t="s">
         <v>39</v>
       </c>
@@ -5289,7 +5279,7 @@
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33">
       <c r="A67" s="54" t="s">
         <v>40</v>
       </c>
@@ -5373,7 +5363,7 @@
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33">
       <c r="A68" s="54" t="s">
         <v>41</v>
       </c>
@@ -5457,7 +5447,7 @@
       <c r="AF68" s="3"/>
       <c r="AG68" s="3"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33">
       <c r="A69" s="54" t="s">
         <v>42</v>
       </c>
@@ -5541,7 +5531,7 @@
       <c r="AF69" s="3"/>
       <c r="AG69" s="3"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33">
       <c r="A70" s="54" t="s">
         <v>43</v>
       </c>
@@ -5625,7 +5615,7 @@
       <c r="AF70" s="3"/>
       <c r="AG70" s="3"/>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33">
       <c r="A71" s="54" t="s">
         <v>44</v>
       </c>
@@ -5709,7 +5699,7 @@
       <c r="AF71" s="3"/>
       <c r="AG71" s="3"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33">
       <c r="A72" s="54" t="s">
         <v>45</v>
       </c>
@@ -5793,7 +5783,7 @@
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33">
       <c r="A73" s="54" t="s">
         <v>46</v>
       </c>
@@ -5877,7 +5867,7 @@
       <c r="AF73" s="3"/>
       <c r="AG73" s="3"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33">
       <c r="A74" s="54" t="s">
         <v>47</v>
       </c>
@@ -5961,7 +5951,7 @@
       <c r="AF74" s="3"/>
       <c r="AG74" s="3"/>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33">
       <c r="A75" s="54" t="s">
         <v>48</v>
       </c>
@@ -6045,7 +6035,7 @@
       <c r="AF75" s="3"/>
       <c r="AG75" s="3"/>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33">
       <c r="A76" s="54" t="s">
         <v>87</v>
       </c>
@@ -6129,7 +6119,7 @@
       <c r="AF76" s="3"/>
       <c r="AG76" s="3"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33">
       <c r="A77" s="54" t="s">
         <v>49</v>
       </c>
@@ -6213,7 +6203,7 @@
       <c r="AF77" s="3"/>
       <c r="AG77" s="3"/>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33">
       <c r="A78" s="54" t="s">
         <v>50</v>
       </c>
@@ -6297,7 +6287,7 @@
       <c r="AF78" s="3"/>
       <c r="AG78" s="3"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33">
       <c r="A79" s="54" t="s">
         <v>51</v>
       </c>
@@ -6381,7 +6371,7 @@
       <c r="AF79" s="3"/>
       <c r="AG79" s="3"/>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33">
       <c r="A80" s="54" t="s">
         <v>52</v>
       </c>
@@ -6465,7 +6455,7 @@
       <c r="AF80" s="3"/>
       <c r="AG80" s="3"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33">
       <c r="A81" s="54" t="s">
         <v>53</v>
       </c>
@@ -6549,7 +6539,7 @@
       <c r="AF81" s="3"/>
       <c r="AG81" s="3"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33">
       <c r="A82" s="54" t="s">
         <v>54</v>
       </c>
@@ -6633,7 +6623,7 @@
       <c r="AF82" s="3"/>
       <c r="AG82" s="3"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33">
       <c r="A83" s="54" t="s">
         <v>55</v>
       </c>
@@ -6717,7 +6707,7 @@
       <c r="AF83" s="3"/>
       <c r="AG83" s="3"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33">
       <c r="A84" s="54" t="s">
         <v>56</v>
       </c>
@@ -6801,7 +6791,7 @@
       <c r="AF84" s="3"/>
       <c r="AG84" s="3"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33">
       <c r="A85" s="54" t="s">
         <v>57</v>
       </c>
@@ -6885,7 +6875,7 @@
       <c r="AF85" s="3"/>
       <c r="AG85" s="3"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33">
       <c r="A86" s="54" t="s">
         <v>58</v>
       </c>
@@ -6969,7 +6959,7 @@
       <c r="AF86" s="3"/>
       <c r="AG86" s="3"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33">
       <c r="A87" s="54" t="s">
         <v>59</v>
       </c>
@@ -7053,7 +7043,7 @@
       <c r="AF87" s="3"/>
       <c r="AG87" s="3"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33">
       <c r="A89" s="53" t="s">
         <v>97</v>
       </c>
@@ -7090,7 +7080,7 @@
       <c r="AF89" s="3"/>
       <c r="AG89" s="3"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33">
       <c r="A90" s="49" t="s">
         <v>60</v>
       </c>
@@ -7127,7 +7117,7 @@
       <c r="AF90" s="3"/>
       <c r="AG90" s="3"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33">
       <c r="A91" s="3"/>
       <c r="C91" s="2">
         <v>2020</v>
@@ -7193,7 +7183,7 @@
       <c r="AF91" s="3"/>
       <c r="AG91" s="3"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33">
       <c r="A92" s="54" t="s">
         <v>61</v>
       </c>
@@ -7277,7 +7267,7 @@
       <c r="AF92" s="3"/>
       <c r="AG92" s="3"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33">
       <c r="A93" s="54" t="s">
         <v>62</v>
       </c>
@@ -7361,7 +7351,7 @@
       <c r="AF93" s="3"/>
       <c r="AG93" s="3"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33">
       <c r="A94" s="54" t="s">
         <v>63</v>
       </c>
@@ -7445,7 +7435,7 @@
       <c r="AF94" s="3"/>
       <c r="AG94" s="3"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33">
       <c r="A95" s="54" t="s">
         <v>64</v>
       </c>
@@ -7529,7 +7519,7 @@
       <c r="AF95" s="3"/>
       <c r="AG95" s="3"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33">
       <c r="A96" s="54" t="s">
         <v>65</v>
       </c>
@@ -7613,7 +7603,7 @@
       <c r="AF96" s="3"/>
       <c r="AG96" s="3"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33">
       <c r="A97" s="54" t="s">
         <v>66</v>
       </c>
@@ -7697,7 +7687,7 @@
       <c r="AF97" s="3"/>
       <c r="AG97" s="3"/>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33">
       <c r="A98" s="54" t="s">
         <v>67</v>
       </c>
@@ -7781,7 +7771,7 @@
       <c r="AF98" s="3"/>
       <c r="AG98" s="3"/>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33">
       <c r="A99" s="54" t="s">
         <v>68</v>
       </c>
@@ -7865,7 +7855,7 @@
       <c r="AF99" s="3"/>
       <c r="AG99" s="3"/>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33">
       <c r="A100" s="54" t="s">
         <v>69</v>
       </c>
@@ -7949,7 +7939,7 @@
       <c r="AF100" s="3"/>
       <c r="AG100" s="3"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33">
       <c r="A101" s="54" t="s">
         <v>70</v>
       </c>
@@ -8033,7 +8023,7 @@
       <c r="AF101" s="3"/>
       <c r="AG101" s="3"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33">
       <c r="A102" s="54" t="s">
         <v>71</v>
       </c>
@@ -8117,7 +8107,7 @@
       <c r="AF102" s="3"/>
       <c r="AG102" s="3"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33">
       <c r="A103" s="54" t="s">
         <v>72</v>
       </c>
@@ -8201,7 +8191,7 @@
       <c r="AF103" s="3"/>
       <c r="AG103" s="3"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33">
       <c r="A104" s="54" t="s">
         <v>73</v>
       </c>
@@ -8285,7 +8275,7 @@
       <c r="AF104" s="3"/>
       <c r="AG104" s="3"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33">
       <c r="A105" s="54" t="s">
         <v>74</v>
       </c>
@@ -8369,7 +8359,7 @@
       <c r="AF105" s="3"/>
       <c r="AG105" s="3"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33">
       <c r="A106" s="54" t="s">
         <v>75</v>
       </c>
@@ -8453,7 +8443,7 @@
       <c r="AF106" s="3"/>
       <c r="AG106" s="3"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33">
       <c r="A107" s="54" t="s">
         <v>76</v>
       </c>
@@ -8537,7 +8527,7 @@
       <c r="AF107" s="3"/>
       <c r="AG107" s="3"/>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33">
       <c r="A108" s="54" t="s">
         <v>77</v>
       </c>
@@ -8621,7 +8611,7 @@
       <c r="AF108" s="3"/>
       <c r="AG108" s="3"/>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33">
       <c r="A109" s="54" t="s">
         <v>78</v>
       </c>
@@ -8705,7 +8695,7 @@
       <c r="AF109" s="3"/>
       <c r="AG109" s="3"/>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33">
       <c r="A110" s="54" t="s">
         <v>79</v>
       </c>
@@ -8781,7 +8771,7 @@
       <c r="AF110" s="3"/>
       <c r="AG110" s="3"/>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33">
       <c r="A111" s="54" t="s">
         <v>80</v>
       </c>
@@ -8857,7 +8847,7 @@
       <c r="AF111" s="3"/>
       <c r="AG111" s="3"/>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33">
       <c r="A112" s="54" t="s">
         <v>81</v>
       </c>
@@ -8933,7 +8923,7 @@
       <c r="AF112" s="3"/>
       <c r="AG112" s="3"/>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33">
       <c r="A113" s="54" t="s">
         <v>82</v>
       </c>
@@ -9019,7 +9009,7 @@
       <c r="AF113" s="3"/>
       <c r="AG113" s="3"/>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33">
       <c r="A114" s="54" t="s">
         <v>83</v>
       </c>
@@ -9095,7 +9085,7 @@
       <c r="AF114" s="3"/>
       <c r="AG114" s="3"/>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33">
       <c r="A115" s="54" t="s">
         <v>84</v>
       </c>
@@ -9171,8 +9161,8 @@
       <c r="AF115" s="3"/>
       <c r="AG115" s="3"/>
     </row>
-    <row r="117" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:33" ht="15.75" thickBot="1"/>
+    <row r="118" spans="1:33" ht="15.75" thickBot="1">
       <c r="A118" s="2" t="s">
         <v>1</v>
       </c>
@@ -9192,7 +9182,7 @@
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
       <c r="Q118" s="18"/>
-      <c r="R118" s="108"/>
+      <c r="R118" s="99"/>
       <c r="S118" s="19"/>
       <c r="T118" s="20"/>
       <c r="U118" s="20"/>
@@ -9207,25 +9197,25 @@
       <c r="AD118" s="20"/>
       <c r="AE118" s="20"/>
     </row>
-    <row r="119" spans="1:33" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="103" t="s">
+    <row r="119" spans="1:33" ht="23.25" thickBot="1">
+      <c r="A119" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="105" t="s">
+      <c r="B119" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="106" t="s">
+      <c r="C119" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D119" s="107"/>
-      <c r="E119" s="107"/>
-      <c r="F119" s="107"/>
-      <c r="G119" s="106" t="s">
+      <c r="D119" s="98"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="H119" s="107"/>
-      <c r="I119" s="107"/>
-      <c r="J119" s="107"/>
+      <c r="H119" s="98"/>
+      <c r="I119" s="98"/>
+      <c r="J119" s="98"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
@@ -9233,8 +9223,8 @@
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
       <c r="Q119" s="18"/>
-      <c r="R119" s="109"/>
-      <c r="S119" s="111" t="s">
+      <c r="R119" s="100"/>
+      <c r="S119" s="102" t="s">
         <v>24</v>
       </c>
       <c r="T119" s="19" t="s">
@@ -9274,9 +9264,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="104"/>
-      <c r="B120" s="105"/>
+    <row r="120" spans="1:33" ht="15.75" thickBot="1">
+      <c r="A120" s="95"/>
+      <c r="B120" s="96"/>
       <c r="C120" s="4">
         <v>2020</v>
       </c>
@@ -9308,8 +9298,8 @@
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
       <c r="Q120" s="18"/>
-      <c r="R120" s="110"/>
-      <c r="S120" s="112"/>
+      <c r="R120" s="101"/>
+      <c r="S120" s="103"/>
       <c r="T120" s="22">
         <v>2022</v>
       </c>
@@ -9347,7 +9337,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:33" ht="34.5" thickBot="1">
       <c r="A121" s="6" t="s">
         <v>6</v>
       </c>
@@ -9418,7 +9408,7 @@
         <v>252.86951483455164</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:33" ht="23.25" thickBot="1">
       <c r="A122" s="10" t="s">
         <v>8</v>
       </c>
@@ -9447,41 +9437,41 @@
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
-      <c r="Q122" s="113"/>
+      <c r="Q122" s="91"/>
       <c r="R122" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="S122" s="114"/>
-      <c r="T122" s="101" t="s">
+      <c r="S122" s="92"/>
+      <c r="T122" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="U122" s="101" t="s">
+      <c r="U122" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="V122" s="101" t="s">
+      <c r="V122" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="W122" s="101" t="s">
+      <c r="W122" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="X122" s="101" t="s">
+      <c r="X122" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="Y122" s="101" t="s">
+      <c r="Y122" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="Z122" s="101" t="s">
+      <c r="Z122" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AA122" s="101" t="s">
+      <c r="AA122" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AB122" s="101"/>
-      <c r="AC122" s="101"/>
-      <c r="AD122" s="101"/>
-      <c r="AE122" s="101"/>
-    </row>
-    <row r="123" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB122" s="89"/>
+      <c r="AC122" s="89"/>
+      <c r="AD122" s="89"/>
+      <c r="AE122" s="89"/>
+    </row>
+    <row r="123" spans="1:33" ht="15.75" thickBot="1">
       <c r="A123" s="6" t="s">
         <v>9</v>
       </c>
@@ -9510,25 +9500,25 @@
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
-      <c r="Q123" s="113"/>
+      <c r="Q123" s="91"/>
       <c r="R123" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="S123" s="115"/>
-      <c r="T123" s="102"/>
-      <c r="U123" s="102"/>
-      <c r="V123" s="102"/>
-      <c r="W123" s="102"/>
-      <c r="X123" s="102"/>
-      <c r="Y123" s="102"/>
-      <c r="Z123" s="102"/>
-      <c r="AA123" s="102"/>
-      <c r="AB123" s="102"/>
-      <c r="AC123" s="102"/>
-      <c r="AD123" s="102"/>
-      <c r="AE123" s="102"/>
-    </row>
-    <row r="124" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S123" s="93"/>
+      <c r="T123" s="90"/>
+      <c r="U123" s="90"/>
+      <c r="V123" s="90"/>
+      <c r="W123" s="90"/>
+      <c r="X123" s="90"/>
+      <c r="Y123" s="90"/>
+      <c r="Z123" s="90"/>
+      <c r="AA123" s="90"/>
+      <c r="AB123" s="90"/>
+      <c r="AC123" s="90"/>
+      <c r="AD123" s="90"/>
+      <c r="AE123" s="90"/>
+    </row>
+    <row r="124" spans="1:33" ht="15.75" thickBot="1">
       <c r="A124" s="10" t="s">
         <v>10</v>
       </c>
@@ -9601,7 +9591,7 @@
         <v>0.30309995733807726</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:33" ht="15.75" thickBot="1">
       <c r="A125" s="6" t="s">
         <v>6</v>
       </c>
@@ -9684,7 +9674,7 @@
         <v>0.31939450393345609</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:33" ht="15.75" thickBot="1">
       <c r="A126" s="10" t="s">
         <v>6</v>
       </c>
@@ -9765,7 +9755,7 @@
         <v>0.33656503959554668</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:33" ht="15.75" thickBot="1">
       <c r="A127" s="6" t="s">
         <v>6</v>
       </c>
@@ -9846,7 +9836,7 @@
         <v>0.35465865718701378</v>
       </c>
     </row>
-    <row r="128" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:33" ht="15.75" thickBot="1">
       <c r="A128" s="10" t="s">
         <v>6</v>
       </c>
@@ -9927,7 +9917,7 @@
         <v>0.37372498126617681</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:31" ht="15.75" thickBot="1">
       <c r="A129" s="6" t="s">
         <v>6</v>
       </c>
@@ -10008,7 +9998,7 @@
         <v>0.3927913053453399</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:31" ht="23.25" thickBot="1">
       <c r="A130" s="10" t="s">
         <v>6</v>
       </c>
@@ -10091,7 +10081,7 @@
         <v>43.366609280678752</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31" ht="15.75" thickBot="1">
       <c r="A131" s="6" t="s">
         <v>8</v>
       </c>
@@ -10174,7 +10164,7 @@
         <v>60.930643827305474</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:31" ht="15.75" thickBot="1">
       <c r="A132" s="10" t="s">
         <v>8</v>
       </c>
@@ -10255,7 +10245,7 @@
         <v>80.257817134322678</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:31" ht="15.75" thickBot="1">
       <c r="A133" s="6" t="s">
         <v>8</v>
       </c>
@@ -10336,7 +10326,7 @@
         <v>101.48693882582241</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:31" ht="15.75" thickBot="1">
       <c r="A134" s="10" t="s">
         <v>8</v>
       </c>
@@ -10417,7 +10407,7 @@
         <v>124.76664759193905</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:31" ht="15.75" thickBot="1">
       <c r="A135" s="6" t="s">
         <v>8</v>
       </c>
@@ -10498,7 +10488,7 @@
         <v>149.86499034714507</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:31" ht="15.75" thickBot="1">
       <c r="A136" s="10" t="s">
         <v>8</v>
       </c>
@@ -10581,7 +10571,7 @@
         <v>64.187199212787178</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:31" ht="15.75" thickBot="1">
       <c r="A137" s="6" t="s">
         <v>9</v>
       </c>
@@ -10664,7 +10654,7 @@
         <v>61.594360138983198</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:31" ht="15.75" thickBot="1">
       <c r="A138" s="10" t="s">
         <v>9</v>
       </c>
@@ -10745,7 +10735,7 @@
         <v>59.493624410996297</v>
       </c>
     </row>
-    <row r="139" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31" ht="15.75" thickBot="1">
       <c r="A139" s="6" t="s">
         <v>9</v>
       </c>
@@ -10826,7 +10816,7 @@
         <v>57.704154570920309</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:31" ht="15.75" thickBot="1">
       <c r="A140" s="10" t="s">
         <v>9</v>
       </c>
@@ -10907,7 +10897,7 @@
         <v>56.691118280256852</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:31" ht="15.75" thickBot="1">
       <c r="A141" s="6" t="s">
         <v>9</v>
       </c>
@@ -10988,7 +10978,7 @@
         <v>56.691118280256852</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:31" ht="15.75" thickBot="1">
       <c r="A142" s="10" t="s">
         <v>9</v>
       </c>
@@ -11071,7 +11061,7 @@
         <v>0.44039766865078672</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:31" ht="15.75" thickBot="1">
       <c r="A143" s="6" t="s">
         <v>10</v>
       </c>
@@ -11154,7 +11144,7 @@
         <v>0.4423415530336538</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31" ht="15.75" thickBot="1">
       <c r="A144" s="10" t="s">
         <v>10</v>
       </c>
@@ -11235,7 +11225,7 @@
         <v>0.44429401758567916</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:31" ht="15.75" thickBot="1">
       <c r="A145" s="6" t="s">
         <v>10</v>
       </c>
@@ -11316,7 +11306,7 @@
         <v>0.44625510017912701</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:31" ht="15.75" thickBot="1">
       <c r="A146" s="10" t="s">
         <v>10</v>
       </c>
@@ -11397,7 +11387,7 @@
         <v>0.44822483885342695</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:31" ht="15.75" thickBot="1">
       <c r="A147" s="6" t="s">
         <v>10</v>
       </c>
@@ -11478,7 +11468,7 @@
         <v>0.45020327181591202</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:31" ht="23.25" thickBot="1">
       <c r="A148" s="10" t="s">
         <v>10</v>
       </c>
@@ -11561,7 +11551,7 @@
         <v>9.3256645451888076</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:31" ht="15.75" thickBot="1">
       <c r="A149" s="6" t="s">
         <v>6</v>
       </c>
@@ -11644,7 +11634,7 @@
         <v>14.05024106040643</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:31" ht="15.75" thickBot="1">
       <c r="A150" s="10" t="s">
         <v>6</v>
       </c>
@@ -11725,7 +11715,7 @@
         <v>18.816343783707534</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:31" ht="15.75" thickBot="1">
       <c r="A151" s="6" t="s">
         <v>6</v>
       </c>
@@ -11806,7 +11796,7 @@
         <v>23.62424725475854</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:31" ht="15.75" thickBot="1">
       <c r="A152" s="10" t="s">
         <v>6</v>
       </c>
@@ -11887,7 +11877,7 @@
         <v>28.474227627777672</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:31" ht="15.75" thickBot="1">
       <c r="A153" s="6" t="s">
         <v>6</v>
       </c>
@@ -11968,7 +11958,7 @@
         <v>33.366562680439209</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:31" ht="15.75" thickBot="1">
       <c r="A154" s="10" t="s">
         <v>6</v>
       </c>
@@ -12051,7 +12041,7 @@
         <v>83.61781376609099</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:31" ht="15.75" thickBot="1">
       <c r="A155" s="6" t="s">
         <v>8</v>
       </c>
@@ -12134,7 +12124,7 @@
         <v>83.61781376609099</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:31" ht="15.75" thickBot="1">
       <c r="A156" s="10" t="s">
         <v>8</v>
       </c>
@@ -12215,7 +12205,7 @@
         <v>83.61781376609099</v>
       </c>
     </row>
-    <row r="157" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:31" ht="15.75" thickBot="1">
       <c r="A157" s="6" t="s">
         <v>8</v>
       </c>
@@ -12296,7 +12286,7 @@
         <v>83.61781376609099</v>
       </c>
     </row>
-    <row r="158" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:31" ht="15.75" thickBot="1">
       <c r="A158" s="10" t="s">
         <v>8</v>
       </c>
@@ -12377,7 +12367,7 @@
         <v>83.61781376609099</v>
       </c>
     </row>
-    <row r="159" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:31" ht="15.75" thickBot="1">
       <c r="A159" s="6" t="s">
         <v>8</v>
       </c>
@@ -12458,7 +12448,7 @@
         <v>83.61781376609099</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:31" ht="15.75" thickBot="1">
       <c r="A160" s="10" t="s">
         <v>8</v>
       </c>
@@ -12509,7 +12499,7 @@
       <c r="Z160" s="3"/>
       <c r="AA160" s="3"/>
     </row>
-    <row r="161" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" ht="15.75" thickBot="1">
       <c r="A161" s="6" t="s">
         <v>9</v>
       </c>
@@ -12560,7 +12550,7 @@
       <c r="Z161" s="3"/>
       <c r="AA161" s="3"/>
     </row>
-    <row r="162" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" ht="15.75" thickBot="1">
       <c r="A162" s="10" t="s">
         <v>9</v>
       </c>
@@ -12611,7 +12601,7 @@
       <c r="Z162" s="3"/>
       <c r="AA162" s="3"/>
     </row>
-    <row r="163" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" ht="15.75" thickBot="1">
       <c r="A163" s="6" t="s">
         <v>9</v>
       </c>
@@ -12662,7 +12652,7 @@
       <c r="Z163" s="3"/>
       <c r="AA163" s="3"/>
     </row>
-    <row r="164" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" ht="15.75" thickBot="1">
       <c r="A164" s="10" t="s">
         <v>9</v>
       </c>
@@ -12713,7 +12703,7 @@
       <c r="Z164" s="3"/>
       <c r="AA164" s="3"/>
     </row>
-    <row r="165" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" ht="15.75" thickBot="1">
       <c r="A165" s="6" t="s">
         <v>9</v>
       </c>
@@ -12764,7 +12754,7 @@
       <c r="Z165" s="3"/>
       <c r="AA165" s="3"/>
     </row>
-    <row r="166" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" ht="15.75" thickBot="1">
       <c r="A166" s="10" t="s">
         <v>9</v>
       </c>
@@ -12815,7 +12805,7 @@
       <c r="Z166" s="3"/>
       <c r="AA166" s="3"/>
     </row>
-    <row r="167" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" ht="15.75" thickBot="1">
       <c r="A167" s="6" t="s">
         <v>10</v>
       </c>
@@ -12866,7 +12856,7 @@
       <c r="Z167" s="3"/>
       <c r="AA167" s="3"/>
     </row>
-    <row r="168" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" ht="15.75" thickBot="1">
       <c r="A168" s="10" t="s">
         <v>10</v>
       </c>
@@ -12917,7 +12907,7 @@
       <c r="Z168" s="3"/>
       <c r="AA168" s="3"/>
     </row>
-    <row r="169" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" ht="15.75" thickBot="1">
       <c r="A169" s="6" t="s">
         <v>10</v>
       </c>
@@ -12968,7 +12958,7 @@
       <c r="Z169" s="3"/>
       <c r="AA169" s="3"/>
     </row>
-    <row r="170" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" ht="15.75" thickBot="1">
       <c r="A170" s="10" t="s">
         <v>10</v>
       </c>
@@ -13019,7 +13009,7 @@
       <c r="Z170" s="3"/>
       <c r="AA170" s="3"/>
     </row>
-    <row r="171" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" ht="15.75" thickBot="1">
       <c r="A171" s="6" t="s">
         <v>10</v>
       </c>
@@ -13070,7 +13060,7 @@
       <c r="Z171" s="3"/>
       <c r="AA171" s="3"/>
     </row>
-    <row r="172" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" ht="15.75" thickBot="1">
       <c r="A172" s="10" t="s">
         <v>10</v>
       </c>
@@ -13121,7 +13111,7 @@
       <c r="Z172" s="3"/>
       <c r="AA172" s="3"/>
     </row>
-    <row r="173" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" ht="15.75" thickBot="1">
       <c r="A173" s="15" t="s">
         <v>6</v>
       </c>
@@ -13163,7 +13153,7 @@
       <c r="Z173" s="3"/>
       <c r="AA173" s="3"/>
     </row>
-    <row r="174" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" ht="15.75" thickBot="1">
       <c r="A174" s="15" t="s">
         <v>8</v>
       </c>
@@ -13205,7 +13195,7 @@
       <c r="Z174" s="3"/>
       <c r="AA174" s="3"/>
     </row>
-    <row r="175" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" ht="15.75" thickBot="1">
       <c r="A175" s="15" t="s">
         <v>9</v>
       </c>
@@ -13247,7 +13237,7 @@
       <c r="Z175" s="3"/>
       <c r="AA175" s="3"/>
     </row>
-    <row r="176" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" ht="15.75" thickBot="1">
       <c r="A176" s="15" t="s">
         <v>10</v>
       </c>
@@ -13289,7 +13279,7 @@
       <c r="Z176" s="3"/>
       <c r="AA176" s="3"/>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:32">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -13318,7 +13308,7 @@
       <c r="Z177" s="3"/>
       <c r="AA177" s="3"/>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:32">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -13347,7 +13337,7 @@
       <c r="Z178" s="3"/>
       <c r="AA178" s="3"/>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:32">
       <c r="A179" s="49" t="s">
         <v>99</v>
       </c>
@@ -13378,7 +13368,7 @@
       <c r="Z179" s="3"/>
       <c r="AA179" s="3"/>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:32">
       <c r="A180" s="3" t="s">
         <v>85</v>
       </c>
@@ -13441,7 +13431,7 @@
       <c r="Z180" s="3"/>
       <c r="AA180" s="3"/>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:32">
       <c r="A181" s="3" t="s">
         <v>86</v>
       </c>
@@ -13520,7 +13510,7 @@
       <c r="Z181" s="3"/>
       <c r="AA181" s="3"/>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:32">
       <c r="A182" s="3" t="s">
         <v>23</v>
       </c>
@@ -13599,7 +13589,7 @@
       <c r="Z182" s="3"/>
       <c r="AA182" s="3"/>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:32">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="53"/>
@@ -13628,7 +13618,7 @@
       <c r="Z183" s="3"/>
       <c r="AA183" s="3"/>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:32">
       <c r="A184" s="49" t="s">
         <v>100</v>
       </c>
@@ -13664,7 +13654,7 @@
       <c r="AE184" s="49"/>
       <c r="AF184" s="49"/>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:32">
       <c r="A185" s="3" t="s">
         <v>85</v>
       </c>
@@ -13762,7 +13752,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:32">
       <c r="A186" s="3" t="s">
         <v>86</v>
       </c>
@@ -13890,7 +13880,7 @@
         <v>5.5925664622652749E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:32">
       <c r="A187" s="3" t="s">
         <v>23</v>
       </c>
@@ -14053,7 +14043,7 @@
       <selection activeCell="B13" sqref="B13:AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.140625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -14061,12 +14051,12 @@
     <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="B2">
         <v>2021</v>
       </c>
@@ -14158,7 +14148,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="64" t="s">
         <v>184</v>
       </c>
@@ -14283,7 +14273,7 @@
         <v>130641797616</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14408,7 +14398,7 @@
         <v>123324758518</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14533,7 +14523,7 @@
         <v>22481978241</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14658,7 +14648,7 @@
         <v>34590984593</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14783,7 +14773,7 @@
         <v>27570635908</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14908,7 +14898,7 @@
         <v>19474802616</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15033,12 +15023,12 @@
         <v>185700776885</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="B12">
         <v>2021</v>
       </c>
@@ -15130,7 +15120,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>185</v>
       </c>
@@ -15255,7 +15245,7 @@
         <v>0.58604270197066977</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="64" t="s">
         <v>186</v>
       </c>
@@ -15380,7 +15370,7 @@
         <v>9.4917741494206828E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="64" t="s">
         <v>187</v>
       </c>
@@ -15505,47 +15495,47 @@
         <v>0.90508225850579316</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="90" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
+    <row r="17" spans="1:30" s="105" customFormat="1" ht="15.75">
+      <c r="A17" s="104" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="W19" s="91"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H20" s="92" t="s">
+    <row r="19" spans="1:30">
+      <c r="H19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="W19" s="106"/>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="H20" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="92" t="s">
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="N20" s="93"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="92" t="s">
+      <c r="N20" s="108"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="107" t="s">
         <v>192</v>
       </c>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="91"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="106"/>
+    </row>
+    <row r="21" spans="1:30">
       <c r="B21" t="s">
         <v>193</v>
       </c>
@@ -15561,7 +15551,7 @@
       <c r="G21" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="91">
+      <c r="H21" s="106">
         <v>3</v>
       </c>
       <c r="I21">
@@ -15573,19 +15563,19 @@
       <c r="K21">
         <v>6</v>
       </c>
-      <c r="L21" s="95">
+      <c r="L21" s="110">
         <v>7</v>
       </c>
-      <c r="M21" s="91" t="s">
+      <c r="M21" s="106" t="s">
         <v>198</v>
       </c>
       <c r="N21" t="s">
         <v>199</v>
       </c>
-      <c r="O21" s="95" t="s">
+      <c r="O21" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="P21" s="91" t="s">
+      <c r="P21" s="106" t="s">
         <v>201</v>
       </c>
       <c r="Q21" t="s">
@@ -15603,10 +15593,10 @@
       <c r="U21" t="s">
         <v>204</v>
       </c>
-      <c r="V21" s="95" t="s">
+      <c r="V21" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="W21" s="91" t="s">
+      <c r="W21" s="106" t="s">
         <v>206</v>
       </c>
       <c r="AA21" t="s">
@@ -15619,7 +15609,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="B22">
         <v>2012</v>
       </c>
@@ -15706,7 +15696,7 @@
         <v>269204.92893499997</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="B23">
         <v>2012</v>
       </c>
@@ -15793,7 +15783,7 @@
         <v>275014.26959799998</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="B24">
         <v>2012</v>
       </c>
@@ -15880,7 +15870,7 @@
         <v>279128.70267299999</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="B25">
         <v>2012</v>
       </c>
@@ -15967,7 +15957,7 @@
         <v>279838.554198</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="B26">
         <v>2012</v>
       </c>
@@ -16054,7 +16044,7 @@
         <v>287889.96027500002</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="B27">
         <v>2012</v>
       </c>
@@ -16141,7 +16131,7 @@
         <v>297585.30382600002</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="B28">
         <v>2012</v>
       </c>
@@ -16228,7 +16218,7 @@
         <v>304857.04434000002</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="B29">
         <v>2012</v>
       </c>
@@ -16315,7 +16305,7 @@
         <v>300044.746866</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="B30">
         <v>2012</v>
       </c>
@@ -16402,7 +16392,7 @@
         <v>302135.239413</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="B31">
         <v>2013</v>
       </c>
@@ -16490,7 +16480,7 @@
         <v>315286.512973</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="B32">
         <v>2013</v>
       </c>
@@ -16578,7 +16568,7 @@
         <v>321947.05459299998</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30">
       <c r="B33">
         <v>2013</v>
       </c>
@@ -16666,7 +16656,7 @@
         <v>320699.79185600003</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:30">
       <c r="B34">
         <v>2013</v>
       </c>
@@ -16754,7 +16744,7 @@
         <v>321099.69637999998</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:30">
       <c r="B35">
         <v>2013</v>
       </c>
@@ -16842,7 +16832,7 @@
         <v>324016.78480200004</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:30">
       <c r="B36">
         <v>2013</v>
       </c>
@@ -16930,7 +16920,7 @@
         <v>328476.361515</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:30">
       <c r="B37">
         <v>2013</v>
       </c>
@@ -17018,7 +17008,7 @@
         <v>332291.28607899998</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:30">
       <c r="B38">
         <v>2013</v>
       </c>
@@ -17106,7 +17096,7 @@
         <v>335752.19136</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:30">
       <c r="B39">
         <v>2013</v>
       </c>
@@ -17194,7 +17184,7 @@
         <v>338568.93268099998</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:30">
       <c r="B40">
         <v>2014</v>
       </c>
@@ -17282,7 +17272,7 @@
         <v>341094.03420599998</v>
       </c>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:30">
       <c r="B41">
         <v>2014</v>
       </c>
@@ -17370,7 +17360,7 @@
         <v>344130.233381</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:30">
       <c r="B42">
         <v>2014</v>
       </c>
@@ -17458,7 +17448,7 @@
         <v>348243.08857100003</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:30">
       <c r="B43">
         <v>2014</v>
       </c>
@@ -17546,7 +17536,7 @@
         <v>351625.99503300001</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:30">
       <c r="B44">
         <v>2014</v>
       </c>
@@ -17634,7 +17624,7 @@
         <v>354872.73295999999</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:30">
       <c r="B45">
         <v>2014</v>
       </c>
@@ -17722,7 +17712,7 @@
         <v>358367.67353300005</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:30">
       <c r="B46">
         <v>2014</v>
       </c>
@@ -17810,7 +17800,7 @@
         <v>361320.58264000004</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:30">
       <c r="B47">
         <v>2014</v>
       </c>
@@ -17898,7 +17888,7 @@
         <v>364871.36687600001</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:30">
       <c r="B48">
         <v>2014</v>
       </c>
@@ -17986,7 +17976,7 @@
         <v>368410.84730599995</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:30">
       <c r="B49">
         <v>2015</v>
       </c>
@@ -18074,7 +18064,7 @@
         <v>371886.64559299999</v>
       </c>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:30">
       <c r="B50">
         <v>2015</v>
       </c>
@@ -18162,7 +18152,7 @@
         <v>375662.94042900001</v>
       </c>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:30">
       <c r="B51">
         <v>2015</v>
       </c>
@@ -18250,7 +18240,7 @@
         <v>379485.037556</v>
       </c>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:30">
       <c r="B52">
         <v>2015</v>
       </c>
@@ -18338,7 +18328,7 @@
         <v>383492.49935100001</v>
       </c>
     </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:30">
       <c r="B53">
         <v>2015</v>
       </c>
@@ -18426,7 +18416,7 @@
         <v>387363.04502800002</v>
       </c>
     </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:30">
       <c r="B54">
         <v>2015</v>
       </c>
@@ -18514,7 +18504,7 @@
         <v>390923.53863600001</v>
       </c>
     </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:30">
       <c r="B55">
         <v>2015</v>
       </c>
@@ -18602,7 +18592,7 @@
         <v>394061.25975500001</v>
       </c>
     </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:30">
       <c r="B56">
         <v>2015</v>
       </c>
@@ -18690,7 +18680,7 @@
         <v>397535.01028799999</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:30">
       <c r="B57">
         <v>2015</v>
       </c>
@@ -18778,7 +18768,7 @@
         <v>401206.37462900003</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:30">
       <c r="B58">
         <v>2016</v>
       </c>
@@ -18866,7 +18856,7 @@
         <v>404637.34415300004</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:30">
       <c r="B59">
         <v>2016</v>
       </c>
@@ -18954,7 +18944,7 @@
         <v>408336.174405</v>
       </c>
     </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:30">
       <c r="B60">
         <v>2016</v>
       </c>
@@ -19042,7 +19032,7 @@
         <v>413143.93676100002</v>
       </c>
     </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:30">
       <c r="B61">
         <v>2016</v>
       </c>
@@ -19111,7 +19101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:30">
       <c r="B62">
         <v>2016</v>
       </c>
@@ -19180,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:30">
       <c r="B63">
         <v>2016</v>
       </c>
@@ -19249,7 +19239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:30">
       <c r="B64">
         <v>2016</v>
       </c>
@@ -19318,7 +19308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:23">
       <c r="B65">
         <v>2016</v>
       </c>
@@ -19387,7 +19377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:23">
       <c r="B66">
         <v>2016</v>
       </c>
@@ -19456,7 +19446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:23">
       <c r="B67">
         <v>2017</v>
       </c>
@@ -19525,7 +19515,7 @@
         <v>6775192</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:23">
       <c r="B68">
         <v>2017</v>
       </c>
@@ -19594,7 +19584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:23">
       <c r="B69">
         <v>2017</v>
       </c>
@@ -19663,7 +19653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:23">
       <c r="B70">
         <v>2017</v>
       </c>
@@ -19732,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:23">
       <c r="B71">
         <v>2017</v>
       </c>
@@ -19801,7 +19791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:23">
       <c r="B72">
         <v>2017</v>
       </c>
@@ -19870,7 +19860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:23">
       <c r="B73">
         <v>2017</v>
       </c>
@@ -19939,7 +19929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:23">
       <c r="B74">
         <v>2017</v>
       </c>
@@ -20008,7 +19998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:23">
       <c r="B75">
         <v>2017</v>
       </c>
@@ -20077,7 +20067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:23">
       <c r="B76">
         <v>2018</v>
       </c>
@@ -20146,7 +20136,7 @@
         <v>6854305</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:23">
       <c r="B77">
         <v>2018</v>
       </c>
@@ -20215,7 +20205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:23">
       <c r="B78">
         <v>2018</v>
       </c>
@@ -20281,7 +20271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:23">
       <c r="B79">
         <v>2018</v>
       </c>
@@ -20350,7 +20340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:23">
       <c r="B80">
         <v>2018</v>
       </c>
@@ -20419,7 +20409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:23">
       <c r="B81">
         <v>2018</v>
       </c>
@@ -20488,7 +20478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:23">
       <c r="B82">
         <v>2018</v>
       </c>
@@ -20557,7 +20547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:23">
       <c r="B83">
         <v>2018</v>
       </c>
@@ -20626,7 +20616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:23">
       <c r="B84">
         <v>2018</v>
       </c>
@@ -20695,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:23">
       <c r="B85">
         <v>2019</v>
       </c>
@@ -20764,7 +20754,7 @@
         <v>6500376</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:23">
       <c r="B86">
         <v>2019</v>
       </c>
@@ -20833,7 +20823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:23">
       <c r="B87">
         <v>2019</v>
       </c>
@@ -20902,7 +20892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:23">
       <c r="B88">
         <v>2019</v>
       </c>
@@ -20971,7 +20961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:23">
       <c r="B89">
         <v>2019</v>
       </c>
@@ -21040,7 +21030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:23">
       <c r="B90">
         <v>2019</v>
       </c>
@@ -21109,7 +21099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:23">
       <c r="B91">
         <v>2019</v>
       </c>
@@ -21178,7 +21168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:23">
       <c r="B92">
         <v>2019</v>
       </c>
@@ -21247,7 +21237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:23">
       <c r="B93">
         <v>2019</v>
       </c>
@@ -21316,7 +21306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:23">
       <c r="B94">
         <v>2020</v>
       </c>
@@ -21385,7 +21375,7 @@
         <v>5911418</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:23">
       <c r="B95">
         <v>2020</v>
       </c>
@@ -21454,7 +21444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:23">
       <c r="B96">
         <v>2020</v>
       </c>
@@ -21523,7 +21513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:23">
       <c r="B97">
         <v>2020</v>
       </c>
@@ -21592,7 +21582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:23">
       <c r="B98">
         <v>2020</v>
       </c>
@@ -21661,7 +21651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:23">
       <c r="B99">
         <v>2020</v>
       </c>
@@ -21730,7 +21720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:23">
       <c r="B100">
         <v>2020</v>
       </c>
@@ -21799,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:23">
       <c r="B101">
         <v>2020</v>
       </c>
@@ -21868,7 +21858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:23">
       <c r="B102">
         <v>2020</v>
       </c>
@@ -21937,7 +21927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:23">
       <c r="B103">
         <v>2021</v>
       </c>
@@ -22006,7 +21996,7 @@
         <v>7145296</v>
       </c>
     </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:23">
       <c r="B104">
         <v>2021</v>
       </c>
@@ -22075,7 +22065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:23">
       <c r="B105">
         <v>2021</v>
       </c>
@@ -22144,7 +22134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:23">
       <c r="B106">
         <v>2021</v>
       </c>
@@ -22213,7 +22203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:23">
       <c r="B107">
         <v>2021</v>
       </c>
@@ -22282,7 +22272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:23">
       <c r="B108">
         <v>2021</v>
       </c>
@@ -22351,7 +22341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:23">
       <c r="B109">
         <v>2021</v>
       </c>
@@ -22420,7 +22410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:23">
       <c r="B110">
         <v>2021</v>
       </c>
@@ -22489,7 +22479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:23">
       <c r="B111">
         <v>2021</v>
       </c>
@@ -22558,7 +22548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:23">
       <c r="B112">
         <v>2022</v>
       </c>
@@ -22627,7 +22617,7 @@
         <v>7899190</v>
       </c>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:23">
       <c r="B113">
         <v>2022</v>
       </c>
@@ -22696,7 +22686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:23">
       <c r="B114">
         <v>2022</v>
       </c>
@@ -22765,7 +22755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:23">
       <c r="B115">
         <v>2022</v>
       </c>
@@ -22834,7 +22824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:23">
       <c r="B116">
         <v>2022</v>
       </c>
@@ -22903,7 +22893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:23">
       <c r="B117">
         <v>2022</v>
       </c>
@@ -22972,7 +22962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:23">
       <c r="B118">
         <v>2022</v>
       </c>
@@ -23041,7 +23031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:23">
       <c r="B119">
         <v>2022</v>
       </c>
@@ -23110,7 +23100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:23">
       <c r="B120">
         <v>2022</v>
       </c>
@@ -23179,7 +23169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:23">
       <c r="B121">
         <v>2023</v>
       </c>
@@ -23248,7 +23238,7 @@
         <v>8510344</v>
       </c>
     </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:23">
       <c r="B122">
         <v>2023</v>
       </c>
@@ -23317,7 +23307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:23">
       <c r="B123">
         <v>2023</v>
       </c>
@@ -23386,7 +23376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:23">
       <c r="B124">
         <v>2023</v>
       </c>
@@ -23455,7 +23445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:23">
       <c r="B125">
         <v>2023</v>
       </c>
@@ -23524,7 +23514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:23">
       <c r="B126">
         <v>2023</v>
       </c>
@@ -23593,7 +23583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:23">
       <c r="B127">
         <v>2023</v>
       </c>
@@ -23662,7 +23652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:23">
       <c r="B128">
         <v>2023</v>
       </c>
@@ -23731,7 +23721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:23">
       <c r="B129">
         <v>2023</v>
       </c>
@@ -23800,7 +23790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:23">
       <c r="B130">
         <v>2024</v>
       </c>
@@ -23869,7 +23859,7 @@
         <v>9126118</v>
       </c>
     </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:23">
       <c r="B131">
         <v>2024</v>
       </c>
@@ -23938,7 +23928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:23">
       <c r="B132">
         <v>2024</v>
       </c>
@@ -24007,7 +23997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:23">
       <c r="B133">
         <v>2024</v>
       </c>
@@ -24076,7 +24066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:23">
       <c r="B134">
         <v>2024</v>
       </c>
@@ -24145,7 +24135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:23">
       <c r="B135">
         <v>2024</v>
       </c>
@@ -24214,7 +24204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:23">
       <c r="B136">
         <v>2024</v>
       </c>
@@ -24283,7 +24273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:23">
       <c r="B137">
         <v>2024</v>
       </c>
@@ -24352,7 +24342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:23">
       <c r="B138">
         <v>2024</v>
       </c>
@@ -24421,7 +24411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:23">
       <c r="B139">
         <v>2025</v>
       </c>
@@ -24490,7 +24480,7 @@
         <v>9739533</v>
       </c>
     </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:23">
       <c r="B140">
         <v>2025</v>
       </c>
@@ -24559,7 +24549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:23">
       <c r="B141">
         <v>2025</v>
       </c>
@@ -24628,7 +24618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:23">
       <c r="B142">
         <v>2025</v>
       </c>
@@ -24697,7 +24687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:23">
       <c r="B143">
         <v>2025</v>
       </c>
@@ -24766,7 +24756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:23">
       <c r="B144">
         <v>2025</v>
       </c>
@@ -24835,7 +24825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:23">
       <c r="B145">
         <v>2025</v>
       </c>
@@ -24904,7 +24894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:23">
       <c r="B146">
         <v>2025</v>
       </c>
@@ -24973,7 +24963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:23">
       <c r="B147">
         <v>2025</v>
       </c>
@@ -25042,7 +25032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:23">
       <c r="B148">
         <v>2026</v>
       </c>
@@ -25111,7 +25101,7 @@
         <v>10316053</v>
       </c>
     </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:23">
       <c r="B149">
         <v>2026</v>
       </c>
@@ -25180,7 +25170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:23">
       <c r="B150">
         <v>2026</v>
       </c>
@@ -25249,7 +25239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:23">
       <c r="B151">
         <v>2026</v>
       </c>
@@ -25318,7 +25308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:23">
       <c r="B152">
         <v>2026</v>
       </c>
@@ -25387,7 +25377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:23">
       <c r="B153">
         <v>2026</v>
       </c>
@@ -25456,7 +25446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:23">
       <c r="B154">
         <v>2026</v>
       </c>
@@ -25525,7 +25515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:23">
       <c r="B155">
         <v>2026</v>
       </c>
@@ -25594,7 +25584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:23">
       <c r="B156">
         <v>2026</v>
       </c>
@@ -25663,7 +25653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:23">
       <c r="B157">
         <v>2027</v>
       </c>
@@ -25732,7 +25722,7 @@
         <v>10792452</v>
       </c>
     </row>
-    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:23">
       <c r="B158">
         <v>2027</v>
       </c>
@@ -25801,7 +25791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:23">
       <c r="B159">
         <v>2027</v>
       </c>
@@ -25870,7 +25860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:23">
       <c r="B160">
         <v>2027</v>
       </c>
@@ -25939,7 +25929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:23">
       <c r="B161">
         <v>2027</v>
       </c>
@@ -26008,7 +25998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:23">
       <c r="B162">
         <v>2027</v>
       </c>
@@ -26077,7 +26067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:23">
       <c r="B163">
         <v>2027</v>
       </c>
@@ -26146,7 +26136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:23">
       <c r="B164">
         <v>2027</v>
       </c>
@@ -26215,7 +26205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:23">
       <c r="B165">
         <v>2027</v>
       </c>
@@ -26284,7 +26274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:23">
       <c r="B166">
         <v>2028</v>
       </c>
@@ -26353,7 +26343,7 @@
         <v>11176272</v>
       </c>
     </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:23">
       <c r="B167">
         <v>2028</v>
       </c>
@@ -26422,7 +26412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:23">
       <c r="B168">
         <v>2028</v>
       </c>
@@ -26491,7 +26481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:23">
       <c r="B169">
         <v>2028</v>
       </c>
@@ -26560,7 +26550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:23">
       <c r="B170">
         <v>2028</v>
       </c>
@@ -26629,7 +26619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:23">
       <c r="B171">
         <v>2028</v>
       </c>
@@ -26698,7 +26688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:23">
       <c r="B172">
         <v>2028</v>
       </c>
@@ -26767,7 +26757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:23">
       <c r="B173">
         <v>2028</v>
       </c>
@@ -26836,7 +26826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:23">
       <c r="B174">
         <v>2028</v>
       </c>
@@ -26905,7 +26895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:23">
       <c r="B175">
         <v>2029</v>
       </c>
@@ -26974,7 +26964,7 @@
         <v>11474709</v>
       </c>
     </row>
-    <row r="176" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:23">
       <c r="B176">
         <v>2029</v>
       </c>
@@ -27043,7 +27033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:23">
       <c r="B177">
         <v>2029</v>
       </c>
@@ -27112,7 +27102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:23">
       <c r="B178">
         <v>2029</v>
       </c>
@@ -27181,7 +27171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:23">
       <c r="B179">
         <v>2029</v>
       </c>
@@ -27250,7 +27240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:23">
       <c r="B180">
         <v>2029</v>
       </c>
@@ -27319,7 +27309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:23">
       <c r="B181">
         <v>2029</v>
       </c>
@@ -27388,7 +27378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:23">
       <c r="B182">
         <v>2029</v>
       </c>
@@ -27457,7 +27447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:23">
       <c r="B183">
         <v>2029</v>
       </c>
@@ -27526,7 +27516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:23">
       <c r="B184">
         <v>2030</v>
       </c>
@@ -27595,7 +27585,7 @@
         <v>11718101</v>
       </c>
     </row>
-    <row r="185" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:23">
       <c r="B185">
         <v>2030</v>
       </c>
@@ -27664,7 +27654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:23">
       <c r="B186">
         <v>2030</v>
       </c>
@@ -27733,7 +27723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:23">
       <c r="B187">
         <v>2030</v>
       </c>
@@ -27802,7 +27792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:23">
       <c r="B188">
         <v>2030</v>
       </c>
@@ -27871,7 +27861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:23">
       <c r="B189">
         <v>2030</v>
       </c>
@@ -27940,7 +27930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:23">
       <c r="B190">
         <v>2030</v>
       </c>
@@ -28009,7 +27999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:23">
       <c r="B191">
         <v>2030</v>
       </c>
@@ -28078,7 +28068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:23">
       <c r="B192">
         <v>2030</v>
       </c>
@@ -28147,7 +28137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:23">
       <c r="B193">
         <v>2031</v>
       </c>
@@ -28216,7 +28206,7 @@
         <v>11950609</v>
       </c>
     </row>
-    <row r="194" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:23">
       <c r="B194">
         <v>2031</v>
       </c>
@@ -28285,7 +28275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:23">
       <c r="B195">
         <v>2031</v>
       </c>
@@ -28354,7 +28344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:23">
       <c r="B196">
         <v>2031</v>
       </c>
@@ -28423,7 +28413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:23">
       <c r="B197">
         <v>2031</v>
       </c>
@@ -28492,7 +28482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:23">
       <c r="B198">
         <v>2031</v>
       </c>
@@ -28561,7 +28551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:23">
       <c r="B199">
         <v>2031</v>
       </c>
@@ -28630,7 +28620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:23">
       <c r="B200">
         <v>2031</v>
       </c>
@@ -28699,7 +28689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:23">
       <c r="B201">
         <v>2031</v>
       </c>
@@ -28768,7 +28758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:23">
       <c r="B202">
         <v>2032</v>
       </c>
@@ -28837,7 +28827,7 @@
         <v>12202189</v>
       </c>
     </row>
-    <row r="203" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:23">
       <c r="B203">
         <v>2032</v>
       </c>
@@ -28906,7 +28896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:23">
       <c r="B204">
         <v>2032</v>
       </c>
@@ -28975,7 +28965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:23">
       <c r="B205">
         <v>2032</v>
       </c>
@@ -29044,7 +29034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:23">
       <c r="B206">
         <v>2032</v>
       </c>
@@ -29113,7 +29103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:23">
       <c r="B207">
         <v>2032</v>
       </c>
@@ -29182,7 +29172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:23">
       <c r="B208">
         <v>2032</v>
       </c>
@@ -29251,7 +29241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:23">
       <c r="B209">
         <v>2032</v>
       </c>
@@ -29320,7 +29310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:23">
       <c r="B210">
         <v>2032</v>
       </c>
@@ -29389,7 +29379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:23">
       <c r="B211">
         <v>2033</v>
       </c>
@@ -29458,7 +29448,7 @@
         <v>12426002</v>
       </c>
     </row>
-    <row r="212" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:23">
       <c r="B212">
         <v>2033</v>
       </c>
@@ -29527,7 +29517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:23">
       <c r="B213">
         <v>2033</v>
       </c>
@@ -29596,7 +29586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:23">
       <c r="B214">
         <v>2033</v>
       </c>
@@ -29665,7 +29655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:23">
       <c r="B215">
         <v>2033</v>
       </c>
@@ -29734,7 +29724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:23">
       <c r="B216">
         <v>2033</v>
       </c>
@@ -29803,7 +29793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:23">
       <c r="B217">
         <v>2033</v>
       </c>
@@ -29872,7 +29862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:23">
       <c r="B218">
         <v>2033</v>
       </c>
@@ -29941,7 +29931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:23">
       <c r="B219">
         <v>2033</v>
       </c>
@@ -30010,7 +30000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:23">
       <c r="B220">
         <v>2034</v>
       </c>
@@ -30079,7 +30069,7 @@
         <v>12642420</v>
       </c>
     </row>
-    <row r="221" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:23">
       <c r="B221">
         <v>2034</v>
       </c>
@@ -30148,7 +30138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:23">
       <c r="B222">
         <v>2034</v>
       </c>
@@ -30217,7 +30207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:23">
       <c r="B223">
         <v>2034</v>
       </c>
@@ -30286,7 +30276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:23">
       <c r="B224">
         <v>2034</v>
       </c>
@@ -30355,7 +30345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:23">
       <c r="B225">
         <v>2034</v>
       </c>
@@ -30424,7 +30414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:23">
       <c r="B226">
         <v>2034</v>
       </c>
@@ -30493,7 +30483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:23">
       <c r="B227">
         <v>2034</v>
       </c>
@@ -30562,7 +30552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:23">
       <c r="B228">
         <v>2034</v>
       </c>
@@ -30631,7 +30621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:23">
       <c r="B229">
         <v>2035</v>
       </c>
@@ -30700,7 +30690,7 @@
         <v>12841677</v>
       </c>
     </row>
-    <row r="230" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:23">
       <c r="B230">
         <v>2035</v>
       </c>
@@ -30769,7 +30759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:23">
       <c r="B231">
         <v>2035</v>
       </c>
@@ -30838,7 +30828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:23">
       <c r="B232">
         <v>2035</v>
       </c>
@@ -30907,7 +30897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:23">
       <c r="B233">
         <v>2035</v>
       </c>
@@ -30976,7 +30966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:23">
       <c r="B234">
         <v>2035</v>
       </c>
@@ -31045,7 +31035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:23">
       <c r="B235">
         <v>2035</v>
       </c>
@@ -31114,7 +31104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:23">
       <c r="B236">
         <v>2035</v>
       </c>
@@ -31183,7 +31173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:23">
       <c r="B237">
         <v>2035</v>
       </c>
@@ -31252,7 +31242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:23">
       <c r="B238">
         <v>2036</v>
       </c>
@@ -31321,7 +31311,7 @@
         <v>12991660</v>
       </c>
     </row>
-    <row r="239" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:23">
       <c r="B239">
         <v>2036</v>
       </c>
@@ -31390,7 +31380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:23">
       <c r="B240">
         <v>2036</v>
       </c>
@@ -31459,7 +31449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:23">
       <c r="B241">
         <v>2036</v>
       </c>
@@ -31528,7 +31518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:23">
       <c r="B242">
         <v>2036</v>
       </c>
@@ -31597,7 +31587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:23">
       <c r="B243">
         <v>2036</v>
       </c>
@@ -31666,7 +31656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:23">
       <c r="B244">
         <v>2036</v>
       </c>
@@ -31735,7 +31725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:23">
       <c r="B245">
         <v>2036</v>
       </c>
@@ -31804,7 +31794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:23">
       <c r="B246">
         <v>2036</v>
       </c>
@@ -31873,7 +31863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:23">
       <c r="B247">
         <v>2037</v>
       </c>
@@ -31942,7 +31932,7 @@
         <v>13129167</v>
       </c>
     </row>
-    <row r="248" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:23">
       <c r="B248">
         <v>2037</v>
       </c>
@@ -32011,7 +32001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:23">
       <c r="B249">
         <v>2037</v>
       </c>
@@ -32080,7 +32070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:23">
       <c r="B250">
         <v>2037</v>
       </c>
@@ -32149,7 +32139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:23">
       <c r="B251">
         <v>2037</v>
       </c>
@@ -32218,7 +32208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:23">
       <c r="B252">
         <v>2037</v>
       </c>
@@ -32287,7 +32277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:23">
       <c r="B253">
         <v>2037</v>
       </c>
@@ -32356,7 +32346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:23">
       <c r="B254">
         <v>2037</v>
       </c>
@@ -32425,7 +32415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:23">
       <c r="B255">
         <v>2037</v>
       </c>
@@ -32494,7 +32484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:23">
       <c r="B256">
         <v>2038</v>
       </c>
@@ -32563,7 +32553,7 @@
         <v>13234496</v>
       </c>
     </row>
-    <row r="257" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:23">
       <c r="B257">
         <v>2038</v>
       </c>
@@ -32632,7 +32622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:23">
       <c r="B258">
         <v>2038</v>
       </c>
@@ -32701,7 +32691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:23">
       <c r="B259">
         <v>2038</v>
       </c>
@@ -32770,7 +32760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:23">
       <c r="B260">
         <v>2038</v>
       </c>
@@ -32839,7 +32829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:23">
       <c r="B261">
         <v>2038</v>
       </c>
@@ -32908,7 +32898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:23">
       <c r="B262">
         <v>2038</v>
       </c>
@@ -32977,7 +32967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:23">
       <c r="B263">
         <v>2038</v>
       </c>
@@ -33046,7 +33036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:23">
       <c r="B264">
         <v>2038</v>
       </c>
@@ -33115,7 +33105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:23">
       <c r="B265">
         <v>2039</v>
       </c>
@@ -33184,7 +33174,7 @@
         <v>13310591</v>
       </c>
     </row>
-    <row r="266" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:23">
       <c r="B266">
         <v>2039</v>
       </c>
@@ -33253,7 +33243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:23">
       <c r="B267">
         <v>2039</v>
       </c>
@@ -33322,7 +33312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:23">
       <c r="B268">
         <v>2039</v>
       </c>
@@ -33391,7 +33381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:23">
       <c r="B269">
         <v>2039</v>
       </c>
@@ -33460,7 +33450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:23">
       <c r="B270">
         <v>2039</v>
       </c>
@@ -33529,7 +33519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:23">
       <c r="B271">
         <v>2039</v>
       </c>
@@ -33598,7 +33588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:23">
       <c r="B272">
         <v>2039</v>
       </c>
@@ -33667,7 +33657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:23">
       <c r="B273">
         <v>2039</v>
       </c>
@@ -33736,7 +33726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:23">
       <c r="B274">
         <v>2040</v>
       </c>
@@ -33805,7 +33795,7 @@
         <v>13386520</v>
       </c>
     </row>
-    <row r="275" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:23">
       <c r="B275">
         <v>2040</v>
       </c>
@@ -33874,7 +33864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:23">
       <c r="B276">
         <v>2040</v>
       </c>
@@ -33943,7 +33933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:23">
       <c r="B277">
         <v>2040</v>
       </c>
@@ -34012,7 +34002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:23">
       <c r="B278">
         <v>2040</v>
       </c>
@@ -34081,7 +34071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:23">
       <c r="B279">
         <v>2040</v>
       </c>
@@ -34150,7 +34140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:23">
       <c r="B280">
         <v>2040</v>
       </c>
@@ -34219,7 +34209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:23">
       <c r="B281">
         <v>2040</v>
       </c>
@@ -34288,7 +34278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:23">
       <c r="B282">
         <v>2040</v>
       </c>
@@ -34357,7 +34347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:23">
       <c r="B283">
         <v>2041</v>
       </c>
@@ -34426,7 +34416,7 @@
         <v>13460125</v>
       </c>
     </row>
-    <row r="284" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:23">
       <c r="B284">
         <v>2041</v>
       </c>
@@ -34495,7 +34485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:23">
       <c r="B285">
         <v>2041</v>
       </c>
@@ -34564,7 +34554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:23">
       <c r="B286">
         <v>2041</v>
       </c>
@@ -34633,7 +34623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:23">
       <c r="B287">
         <v>2041</v>
       </c>
@@ -34702,7 +34692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:23">
       <c r="B288">
         <v>2041</v>
       </c>
@@ -34771,7 +34761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:23">
       <c r="B289">
         <v>2041</v>
       </c>
@@ -34840,7 +34830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:23">
       <c r="B290">
         <v>2041</v>
       </c>
@@ -34909,7 +34899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:23">
       <c r="B291">
         <v>2041</v>
       </c>
@@ -34978,7 +34968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:23">
       <c r="B292">
         <v>2042</v>
       </c>
@@ -35047,7 +35037,7 @@
         <v>13537213</v>
       </c>
     </row>
-    <row r="293" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:23">
       <c r="B293">
         <v>2042</v>
       </c>
@@ -35116,7 +35106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:23">
       <c r="B294">
         <v>2042</v>
       </c>
@@ -35185,7 +35175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:23">
       <c r="B295">
         <v>2042</v>
       </c>
@@ -35254,7 +35244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:23">
       <c r="B296">
         <v>2042</v>
       </c>
@@ -35323,7 +35313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:23">
       <c r="B297">
         <v>2042</v>
       </c>
@@ -35392,7 +35382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:23">
       <c r="B298">
         <v>2042</v>
       </c>
@@ -35461,7 +35451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:23">
       <c r="B299">
         <v>2042</v>
       </c>
@@ -35530,7 +35520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:23">
       <c r="B300">
         <v>2042</v>
       </c>
@@ -35599,7 +35589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:23">
       <c r="B301">
         <v>2043</v>
       </c>
@@ -35668,7 +35658,7 @@
         <v>13610875</v>
       </c>
     </row>
-    <row r="302" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:23">
       <c r="B302">
         <v>2043</v>
       </c>
@@ -35737,7 +35727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:23">
       <c r="B303">
         <v>2043</v>
       </c>
@@ -35806,7 +35796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:23">
       <c r="B304">
         <v>2043</v>
       </c>
@@ -35875,7 +35865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:23">
       <c r="B305">
         <v>2043</v>
       </c>
@@ -35944,7 +35934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:23">
       <c r="B306">
         <v>2043</v>
       </c>
@@ -36013,7 +36003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:23">
       <c r="B307">
         <v>2043</v>
       </c>
@@ -36082,7 +36072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:23">
       <c r="B308">
         <v>2043</v>
       </c>
@@ -36151,7 +36141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:23">
       <c r="B309">
         <v>2043</v>
       </c>
@@ -36220,7 +36210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:23">
       <c r="B310">
         <v>2044</v>
       </c>
@@ -36289,7 +36279,7 @@
         <v>13671004</v>
       </c>
     </row>
-    <row r="311" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:23">
       <c r="B311">
         <v>2044</v>
       </c>
@@ -36358,7 +36348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:23">
       <c r="B312">
         <v>2044</v>
       </c>
@@ -36427,7 +36417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:23">
       <c r="B313">
         <v>2044</v>
       </c>
@@ -36496,7 +36486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:23">
       <c r="B314">
         <v>2044</v>
       </c>
@@ -36565,7 +36555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:23">
       <c r="B315">
         <v>2044</v>
       </c>
@@ -36634,7 +36624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:23">
       <c r="B316">
         <v>2044</v>
       </c>
@@ -36703,7 +36693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:23">
       <c r="B317">
         <v>2044</v>
       </c>
@@ -36772,7 +36762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:23">
       <c r="B318">
         <v>2044</v>
       </c>
@@ -36841,7 +36831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:23">
       <c r="B319">
         <v>2045</v>
       </c>
@@ -36910,7 +36900,7 @@
         <v>13698105</v>
       </c>
     </row>
-    <row r="320" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:23">
       <c r="B320">
         <v>2045</v>
       </c>
@@ -36979,7 +36969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:23">
       <c r="B321">
         <v>2045</v>
       </c>
@@ -37048,7 +37038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:23">
       <c r="B322">
         <v>2045</v>
       </c>
@@ -37117,7 +37107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:23">
       <c r="B323">
         <v>2045</v>
       </c>
@@ -37186,7 +37176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:23">
       <c r="B324">
         <v>2045</v>
       </c>
@@ -37255,7 +37245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:23">
       <c r="B325">
         <v>2045</v>
       </c>
@@ -37324,7 +37314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:23">
       <c r="B326">
         <v>2045</v>
       </c>
@@ -37393,7 +37383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:23">
       <c r="B327">
         <v>2045</v>
       </c>
@@ -37462,7 +37452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:23">
       <c r="B328">
         <v>2046</v>
       </c>
@@ -37531,7 +37521,7 @@
         <v>13712468</v>
       </c>
     </row>
-    <row r="329" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:23">
       <c r="B329">
         <v>2046</v>
       </c>
@@ -37600,7 +37590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:23">
       <c r="B330">
         <v>2046</v>
       </c>
@@ -37669,7 +37659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:23">
       <c r="B331">
         <v>2046</v>
       </c>
@@ -37738,7 +37728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:23">
       <c r="B332">
         <v>2046</v>
       </c>
@@ -37807,7 +37797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:23">
       <c r="B333">
         <v>2046</v>
       </c>
@@ -37876,7 +37866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:23">
       <c r="B334">
         <v>2046</v>
       </c>
@@ -37945,7 +37935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:23">
       <c r="B335">
         <v>2046</v>
       </c>
@@ -38014,7 +38004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:23">
       <c r="B336">
         <v>2046</v>
       </c>
@@ -38083,7 +38073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:23">
       <c r="B337">
         <v>2047</v>
       </c>
@@ -38152,7 +38142,7 @@
         <v>13729347</v>
       </c>
     </row>
-    <row r="338" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:23">
       <c r="B338">
         <v>2047</v>
       </c>
@@ -38221,7 +38211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:23">
       <c r="B339">
         <v>2047</v>
       </c>
@@ -38290,7 +38280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:23">
       <c r="B340">
         <v>2047</v>
       </c>
@@ -38359,7 +38349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:23">
       <c r="B341">
         <v>2047</v>
       </c>
@@ -38428,7 +38418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:23">
       <c r="B342">
         <v>2047</v>
       </c>
@@ -38497,7 +38487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:23">
       <c r="B343">
         <v>2047</v>
       </c>
@@ -38566,7 +38556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:23">
       <c r="B344">
         <v>2047</v>
       </c>
@@ -38635,7 +38625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:23">
       <c r="B345">
         <v>2047</v>
       </c>
@@ -38704,7 +38694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:23">
       <c r="B346">
         <v>2048</v>
       </c>
@@ -38773,7 +38763,7 @@
         <v>13744756</v>
       </c>
     </row>
-    <row r="347" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:23">
       <c r="B347">
         <v>2048</v>
       </c>
@@ -38842,7 +38832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:23">
       <c r="B348">
         <v>2048</v>
       </c>
@@ -38911,7 +38901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:23">
       <c r="B349">
         <v>2048</v>
       </c>
@@ -38980,7 +38970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:23">
       <c r="B350">
         <v>2048</v>
       </c>
@@ -39049,7 +39039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:23">
       <c r="B351">
         <v>2048</v>
       </c>
@@ -39118,7 +39108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:23">
       <c r="B352">
         <v>2048</v>
       </c>
@@ -39187,7 +39177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:23">
       <c r="B353">
         <v>2048</v>
       </c>
@@ -39256,7 +39246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:23">
       <c r="B354">
         <v>2048</v>
       </c>
@@ -39325,7 +39315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:23">
       <c r="B355">
         <v>2049</v>
       </c>
@@ -39394,7 +39384,7 @@
         <v>13758281</v>
       </c>
     </row>
-    <row r="356" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:23">
       <c r="B356">
         <v>2049</v>
       </c>
@@ -39463,7 +39453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:23">
       <c r="B357">
         <v>2049</v>
       </c>
@@ -39532,7 +39522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:23">
       <c r="B358">
         <v>2049</v>
       </c>
@@ -39601,7 +39591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:23">
       <c r="B359">
         <v>2049</v>
       </c>
@@ -39670,7 +39660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:23">
       <c r="B360">
         <v>2049</v>
       </c>
@@ -39739,7 +39729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:23">
       <c r="B361">
         <v>2049</v>
       </c>
@@ -39808,7 +39798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:23">
       <c r="B362">
         <v>2049</v>
       </c>
@@ -39877,7 +39867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:23">
       <c r="B363">
         <v>2049</v>
       </c>
@@ -39946,7 +39936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:23">
       <c r="B364">
         <v>2050</v>
       </c>
@@ -40015,7 +40005,7 @@
         <v>13817684</v>
       </c>
     </row>
-    <row r="365" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:23">
       <c r="B365">
         <v>2050</v>
       </c>
@@ -40084,7 +40074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:23">
       <c r="B366">
         <v>2050</v>
       </c>
@@ -40153,7 +40143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:23">
       <c r="B367">
         <v>2050</v>
       </c>
@@ -40222,7 +40212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:23">
       <c r="B368">
         <v>2050</v>
       </c>
@@ -40291,7 +40281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:23">
       <c r="B369">
         <v>2050</v>
       </c>
@@ -40360,7 +40350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:23">
       <c r="B370">
         <v>2050</v>
       </c>
@@ -40429,7 +40419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:23">
       <c r="B371">
         <v>2050</v>
       </c>
@@ -40498,7 +40488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:23">
       <c r="B372">
         <v>2050</v>
       </c>
@@ -40580,14 +40570,14 @@
       <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
@@ -40685,7 +40675,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36">
       <c r="A2" s="63" t="s">
         <v>102</v>
       </c>
@@ -40785,7 +40775,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36">
       <c r="A3" s="63" t="s">
         <v>103</v>
       </c>
@@ -40885,7 +40875,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36">
       <c r="A4" s="63" t="s">
         <v>104</v>
       </c>
@@ -40985,7 +40975,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36">
       <c r="A5" s="63" t="s">
         <v>105</v>
       </c>
@@ -41085,7 +41075,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" s="63" t="s">
         <v>106</v>
       </c>
@@ -41185,7 +41175,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36">
       <c r="A7" s="63" t="s">
         <v>107</v>
       </c>
@@ -41285,7 +41275,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36">
       <c r="A8" s="63" t="s">
         <v>108</v>
       </c>
@@ -41385,7 +41375,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36">
       <c r="A9" s="63" t="s">
         <v>109</v>
       </c>
@@ -41485,7 +41475,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36">
       <c r="A10" s="63" t="s">
         <v>110</v>
       </c>
@@ -41585,7 +41575,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36">
       <c r="A11" s="63" t="s">
         <v>111</v>
       </c>
@@ -41685,12 +41675,12 @@
         <v>646</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" s="66" customFormat="1" ht="12.75">
       <c r="A14" s="65" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="65" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" s="65" customFormat="1" ht="12.75">
       <c r="A15" s="67"/>
       <c r="B15" s="65">
         <v>2020</v>
@@ -41798,7 +41788,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" s="67" customFormat="1" ht="12.75">
       <c r="A16" s="68" t="s">
         <v>113</v>
       </c>
@@ -41824,7 +41814,7 @@
       <c r="U16" s="69"/>
       <c r="V16" s="69"/>
     </row>
-    <row r="17" spans="1:36" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" s="66" customFormat="1" ht="12.75">
       <c r="A17" s="66" t="s">
         <v>102</v>
       </c>
@@ -41963,7 +41953,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" s="66" customFormat="1" ht="12.75">
       <c r="A18" s="66" t="s">
         <v>103</v>
       </c>
@@ -42102,7 +42092,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:36" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" s="66" customFormat="1" ht="12.75">
       <c r="A19" s="66" t="s">
         <v>104</v>
       </c>
@@ -42241,7 +42231,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:36" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" s="66" customFormat="1" ht="12.75">
       <c r="A20" s="66" t="s">
         <v>105</v>
       </c>
@@ -42380,7 +42370,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:36" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" s="66" customFormat="1" ht="12.75">
       <c r="A21" s="66" t="s">
         <v>106</v>
       </c>
@@ -42519,7 +42509,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:36" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" s="66" customFormat="1" ht="12.75">
       <c r="A22" s="66" t="s">
         <v>107</v>
       </c>
@@ -42658,7 +42648,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:36" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" s="73" customFormat="1" ht="12.75">
       <c r="A23" s="71" t="s">
         <v>114</v>
       </c>
@@ -42712,7 +42702,7 @@
       <c r="AH23" s="79"/>
       <c r="AI23" s="79"/>
     </row>
-    <row r="24" spans="1:36" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" s="66" customFormat="1" ht="12.75">
       <c r="A24" s="66" t="s">
         <v>108</v>
       </c>
@@ -42851,7 +42841,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:36" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" s="66" customFormat="1" ht="12.75">
       <c r="A25" s="66" t="s">
         <v>109</v>
       </c>
@@ -42990,7 +42980,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:36" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" s="66" customFormat="1" ht="12.75">
       <c r="A26" s="66" t="s">
         <v>110</v>
       </c>
@@ -43129,7 +43119,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:36" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" s="66" customFormat="1" ht="12.75">
       <c r="A27" s="66" t="s">
         <v>111</v>
       </c>
@@ -43268,7 +43258,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:36" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" s="73" customFormat="1" ht="12.75">
       <c r="A28" s="71" t="s">
         <v>115</v>
       </c>
@@ -43322,17 +43312,17 @@
       <c r="AH28" s="70"/>
       <c r="AI28" s="70"/>
     </row>
-    <row r="31" spans="1:36" s="74" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:36" s="74" customFormat="1" ht="33.75">
       <c r="B31" s="75" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:36" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" s="74" customFormat="1" ht="17.25" customHeight="1">
       <c r="B32" s="74" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="B33" s="74" t="s">
         <v>122</v>
       </c>
@@ -43496,7 +43486,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A34" s="74" t="s">
         <v>125</v>
       </c>
@@ -43660,7 +43650,7 @@
         <v>8941.1253098647539</v>
       </c>
     </row>
-    <row r="35" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A35" s="74" t="s">
         <v>125</v>
       </c>
@@ -43824,7 +43814,7 @@
         <v>9335.2229055276457</v>
       </c>
     </row>
-    <row r="36" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A36" s="74" t="s">
         <v>125</v>
       </c>
@@ -43988,7 +43978,7 @@
         <v>9449.9949414654075</v>
       </c>
     </row>
-    <row r="37" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A37" s="74" t="s">
         <v>125</v>
       </c>
@@ -44152,7 +44142,7 @@
         <v>49876.035846764251</v>
       </c>
     </row>
-    <row r="38" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A38" s="3" t="s">
         <v>111</v>
       </c>
@@ -44316,7 +44306,7 @@
         <v>48998.777404870685</v>
       </c>
     </row>
-    <row r="39" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A39" s="3" t="s">
         <v>111</v>
       </c>
@@ -44480,7 +44470,7 @@
         <v>48193.856381193618</v>
       </c>
     </row>
-    <row r="40" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A40" s="3" t="s">
         <v>108</v>
       </c>
@@ -44644,7 +44634,7 @@
         <v>16842.299684166632</v>
       </c>
     </row>
-    <row r="41" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A41" s="3" t="s">
         <v>110</v>
       </c>
@@ -44808,7 +44798,7 @@
         <v>16665.30579126858</v>
       </c>
     </row>
-    <row r="42" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A42" s="3" t="s">
         <v>110</v>
       </c>
@@ -44972,7 +44962,7 @@
         <v>16757.077087471102</v>
       </c>
     </row>
-    <row r="43" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A43" s="3" t="s">
         <v>108</v>
       </c>
@@ -45136,7 +45126,7 @@
         <v>49997.893522427854</v>
       </c>
     </row>
-    <row r="44" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A44" s="3" t="s">
         <v>109</v>
       </c>
@@ -45300,7 +45290,7 @@
         <v>49806.329843386644</v>
       </c>
     </row>
-    <row r="45" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A45" s="3" t="s">
         <v>109</v>
       </c>
@@ -45464,7 +45454,7 @@
         <v>32848.683068259023</v>
       </c>
     </row>
-    <row r="46" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A46" s="74" t="s">
         <v>125</v>
       </c>
@@ -45628,7 +45618,7 @@
         <v>49918.549378741227</v>
       </c>
     </row>
-    <row r="47" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A47" s="74" t="s">
         <v>139</v>
       </c>
@@ -45792,7 +45782,7 @@
         <v>19869.544927123421</v>
       </c>
     </row>
-    <row r="48" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A48" s="74" t="s">
         <v>139</v>
       </c>
@@ -45956,7 +45946,7 @@
         <v>20407.15243008138</v>
       </c>
     </row>
-    <row r="49" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A49" s="74" t="s">
         <v>139</v>
       </c>
@@ -46120,7 +46110,7 @@
         <v>20211.770846553783</v>
       </c>
     </row>
-    <row r="50" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A50" s="74" t="s">
         <v>139</v>
       </c>
@@ -46284,7 +46274,7 @@
         <v>3807.8853271450416</v>
       </c>
     </row>
-    <row r="51" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A51" s="74" t="s">
         <v>139</v>
       </c>
@@ -46448,7 +46438,7 @@
         <v>18552.652863838659</v>
       </c>
     </row>
-    <row r="52" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A52" s="74" t="s">
         <v>139</v>
       </c>
@@ -46612,7 +46602,7 @@
         <v>19882.163050778829</v>
       </c>
     </row>
-    <row r="53" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A53" s="74" t="s">
         <v>139</v>
       </c>
@@ -46776,7 +46766,7 @@
         <v>7249.3066990766138</v>
       </c>
     </row>
-    <row r="54" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A54" s="74" t="s">
         <v>139</v>
       </c>
@@ -46940,7 +46930,7 @@
         <v>9896.7090327829428</v>
       </c>
     </row>
-    <row r="55" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A55" s="74" t="s">
         <v>139</v>
       </c>
@@ -47104,7 +47094,7 @@
         <v>35740.823754379227</v>
       </c>
     </row>
-    <row r="56" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A56" s="74" t="s">
         <v>139</v>
       </c>
@@ -47268,7 +47258,7 @@
         <v>23790.748009964722</v>
       </c>
     </row>
-    <row r="57" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A57" s="3" t="s">
         <v>106</v>
       </c>
@@ -47432,7 +47422,7 @@
         <v>166426.06571909611</v>
       </c>
     </row>
-    <row r="58" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A58" s="3" t="s">
         <v>106</v>
       </c>
@@ -47596,7 +47586,7 @@
         <v>38356.83368908472</v>
       </c>
     </row>
-    <row r="59" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A59" s="3" t="s">
         <v>106</v>
       </c>
@@ -47760,7 +47750,7 @@
         <v>155258.70386157703</v>
       </c>
     </row>
-    <row r="60" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A60" s="3" t="s">
         <v>105</v>
       </c>
@@ -47924,7 +47914,7 @@
         <v>78994.790843715484</v>
       </c>
     </row>
-    <row r="61" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A61" s="3" t="s">
         <v>105</v>
       </c>
@@ -48088,7 +48078,7 @@
         <v>68790.444903315016</v>
       </c>
     </row>
-    <row r="62" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A62" s="3" t="s">
         <v>105</v>
       </c>
@@ -48252,7 +48242,7 @@
         <v>68126.066685689249</v>
       </c>
     </row>
-    <row r="63" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A63" s="3" t="s">
         <v>107</v>
       </c>
@@ -48416,7 +48406,7 @@
         <v>11871.71555095992</v>
       </c>
     </row>
-    <row r="64" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A64" s="3" t="s">
         <v>107</v>
       </c>
@@ -48580,7 +48570,7 @@
         <v>34354.151463321126</v>
       </c>
     </row>
-    <row r="65" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A65" s="3" t="s">
         <v>107</v>
       </c>
@@ -48744,7 +48734,7 @@
         <v>34961.745255937552</v>
       </c>
     </row>
-    <row r="66" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A66" s="3" t="s">
         <v>102</v>
       </c>
@@ -48908,7 +48898,7 @@
         <v>38399.901376300746</v>
       </c>
     </row>
-    <row r="67" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A67" s="3" t="s">
         <v>103</v>
       </c>
@@ -49072,7 +49062,7 @@
         <v>33700.276020704143</v>
       </c>
     </row>
-    <row r="68" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A68" s="3" t="s">
         <v>104</v>
       </c>
@@ -49236,7 +49226,7 @@
         <v>35644.527293675485</v>
       </c>
     </row>
-    <row r="69" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A69" s="3" t="s">
         <v>102</v>
       </c>
@@ -49400,7 +49390,7 @@
         <v>24778.887723792297</v>
       </c>
     </row>
-    <row r="70" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A70" s="3" t="s">
         <v>103</v>
       </c>
@@ -49564,7 +49554,7 @@
         <v>22251.772967826735</v>
       </c>
     </row>
-    <row r="71" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A71" s="3" t="s">
         <v>104</v>
       </c>
@@ -49728,12 +49718,12 @@
         <v>23473.477713170843</v>
       </c>
     </row>
-    <row r="72" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="B72" s="74" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="B73" s="74" t="s">
         <v>124</v>
       </c>
@@ -49894,9 +49884,9 @@
         <v>36810.263386482577</v>
       </c>
     </row>
-    <row r="74" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:55" s="74" customFormat="1" ht="15.75"/>
+    <row r="75" spans="1:55" s="74" customFormat="1" ht="15.75"/>
+    <row r="76" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A76" s="2" t="s">
         <v>165</v>
       </c>
@@ -50000,7 +49990,7 @@
       <c r="AI76" s="76"/>
       <c r="AJ76" s="76"/>
     </row>
-    <row r="77" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A77" s="3" t="s">
         <v>102</v>
       </c>
@@ -50136,7 +50126,7 @@
       <c r="AI77" s="77"/>
       <c r="AJ77" s="77"/>
     </row>
-    <row r="78" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A78" s="3" t="s">
         <v>103</v>
       </c>
@@ -50272,7 +50262,7 @@
       <c r="AI78" s="77"/>
       <c r="AJ78" s="77"/>
     </row>
-    <row r="79" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A79" s="3" t="s">
         <v>104</v>
       </c>
@@ -50408,7 +50398,7 @@
       <c r="AI79" s="77"/>
       <c r="AJ79" s="77"/>
     </row>
-    <row r="80" spans="1:55" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:55" s="74" customFormat="1" ht="15.75">
       <c r="A80" s="3" t="s">
         <v>105</v>
       </c>
@@ -50544,7 +50534,7 @@
       <c r="AI80" s="77"/>
       <c r="AJ80" s="77"/>
     </row>
-    <row r="81" spans="1:36" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" s="74" customFormat="1" ht="15.75">
       <c r="A81" s="3" t="s">
         <v>106</v>
       </c>
@@ -50680,7 +50670,7 @@
       <c r="AI81" s="77"/>
       <c r="AJ81" s="77"/>
     </row>
-    <row r="82" spans="1:36" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" s="74" customFormat="1" ht="15.75">
       <c r="A82" s="3" t="s">
         <v>107</v>
       </c>
@@ -50816,7 +50806,7 @@
       <c r="AI82" s="77"/>
       <c r="AJ82" s="77"/>
     </row>
-    <row r="83" spans="1:36" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" s="74" customFormat="1" ht="15.75">
       <c r="A83" s="3" t="s">
         <v>108</v>
       </c>
@@ -50952,7 +50942,7 @@
       <c r="AI83" s="77"/>
       <c r="AJ83" s="77"/>
     </row>
-    <row r="84" spans="1:36" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" s="74" customFormat="1" ht="15.75">
       <c r="A84" s="3" t="s">
         <v>109</v>
       </c>
@@ -51088,7 +51078,7 @@
       <c r="AI84" s="77"/>
       <c r="AJ84" s="77"/>
     </row>
-    <row r="85" spans="1:36" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" s="74" customFormat="1" ht="15.75">
       <c r="A85" s="3" t="s">
         <v>110</v>
       </c>
@@ -51224,7 +51214,7 @@
       <c r="AI85" s="77"/>
       <c r="AJ85" s="77"/>
     </row>
-    <row r="86" spans="1:36" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" s="74" customFormat="1" ht="15.75">
       <c r="A86" s="3" t="s">
         <v>111</v>
       </c>
@@ -51360,8 +51350,8 @@
       <c r="AI86" s="77"/>
       <c r="AJ86" s="77"/>
     </row>
-    <row r="87" spans="1:36" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" s="74" customFormat="1" ht="15.75"/>
+    <row r="88" spans="1:36" ht="15.75">
       <c r="A88" s="2" t="s">
         <v>167</v>
       </c>
@@ -51462,7 +51452,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="15.75">
       <c r="A89" s="3" t="s">
         <v>102</v>
       </c>
@@ -51595,7 +51585,7 @@
         <v>5996857491.3620796</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="15.75">
       <c r="A90" s="3" t="s">
         <v>103</v>
       </c>
@@ -51728,7 +51718,7 @@
         <v>6092649373.6413736</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="15.75">
       <c r="A91" s="3" t="s">
         <v>104</v>
       </c>
@@ -51861,7 +51851,7 @@
         <v>4921899033.8039122</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="15.75">
       <c r="A92" s="3" t="s">
         <v>105</v>
       </c>
@@ -51994,7 +51984,7 @@
         <v>4009203689.6150379</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" ht="15.75">
       <c r="A93" s="3" t="s">
         <v>106</v>
       </c>
@@ -52127,7 +52117,7 @@
         <v>13858416762.7997</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" ht="15.75">
       <c r="A94" s="3" t="s">
         <v>107</v>
       </c>
@@ -52260,7 +52250,7 @@
         <v>202489837.31678164</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" ht="15.75">
       <c r="A95" s="3" t="s">
         <v>108</v>
       </c>
@@ -52393,7 +52383,7 @@
         <v>270851560.49265301</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="15.75">
       <c r="A96" s="3" t="s">
         <v>109</v>
       </c>
@@ -52526,7 +52516,7 @@
         <v>305107518.63828403</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" ht="15.75">
       <c r="A97" s="3" t="s">
         <v>110</v>
       </c>
@@ -52659,7 +52649,7 @@
         <v>648709168.4910059</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" ht="15.75">
       <c r="A98" s="3" t="s">
         <v>111</v>
       </c>
@@ -52792,7 +52782,7 @@
         <v>1128440351.9515312</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" ht="15.75">
       <c r="A100" s="2" t="s">
         <v>168</v>
       </c>
@@ -52893,7 +52883,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" ht="15.75">
       <c r="A101" s="3" t="s">
         <v>102</v>
       </c>
@@ -53026,7 +53016,7 @@
         <v>0.49603822209834753</v>
       </c>
     </row>
-    <row r="102" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" ht="15.75">
       <c r="A102" s="3" t="s">
         <v>103</v>
       </c>
@@ -53159,7 +53149,7 @@
         <v>0.50396177790165253</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" ht="15.75">
       <c r="A103" s="3" t="s">
         <v>104</v>
       </c>
@@ -53292,7 +53282,7 @@
         <v>0.21406998251195397</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" ht="15.75">
       <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
@@ -53425,7 +53415,7 @@
         <v>0.17437378496150294</v>
       </c>
     </row>
-    <row r="105" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" ht="15.75">
       <c r="A105" s="3" t="s">
         <v>106</v>
       </c>
@@ -53558,7 +53548,7 @@
         <v>0.60274926683392283</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" ht="15.75">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -53691,7 +53681,7 @@
         <v>8.806965692620258E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" ht="15.75">
       <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
@@ -53824,7 +53814,7 @@
         <v>0.11510372302483096</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" ht="15.75">
       <c r="A108" s="3" t="s">
         <v>109</v>
       </c>
@@ -53957,7 +53947,7 @@
         <v>0.12966146938292097</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" ht="15.75">
       <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
@@ -54090,7 +54080,7 @@
         <v>0.27568178052155834</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" ht="15.75">
       <c r="A110" s="3" t="s">
         <v>111</v>
       </c>
@@ -54223,7 +54213,7 @@
         <v>0.47955302707068981</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" ht="15.75">
       <c r="A111" s="3"/>
       <c r="B111" s="76"/>
       <c r="C111" s="78"/>
@@ -54258,7 +54248,7 @@
       <c r="AF111" s="78"/>
       <c r="AG111" s="78"/>
     </row>
-    <row r="112" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" ht="15.75">
       <c r="A112" s="3" t="s">
         <v>218</v>
       </c>
@@ -54388,7 +54378,7 @@
         <v>0.58604270197066977</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" ht="15.75">
       <c r="A113" s="3" t="s">
         <v>219</v>
       </c>
@@ -54518,7 +54508,7 @@
         <v>0.41395729802933023</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" ht="15.75">
       <c r="A114" s="3"/>
       <c r="B114" s="76"/>
       <c r="C114" s="78"/>
@@ -54553,7 +54543,7 @@
       <c r="AF114" s="78"/>
       <c r="AG114" s="78"/>
     </row>
-    <row r="115" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" ht="15.75">
       <c r="A115" s="3"/>
       <c r="B115" s="76"/>
       <c r="C115" s="78"/>
@@ -54588,7 +54578,7 @@
       <c r="AF115" s="78"/>
       <c r="AG115" s="78"/>
     </row>
-    <row r="116" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" ht="15.75">
       <c r="A116" s="2" t="s">
         <v>169</v>
       </c>
@@ -54689,7 +54679,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" ht="15.75">
       <c r="A117" s="3" t="s">
         <v>102</v>
       </c>
@@ -54698,395 +54688,395 @@
         <v>Freight LDV</v>
       </c>
       <c r="C117">
-        <f t="shared" ref="C117:AG117" si="58">C101*B2</f>
+        <f>C101*B2</f>
         <v>69.651741796091258</v>
       </c>
       <c r="D117">
-        <f t="shared" si="58"/>
+        <f>D101*C2</f>
         <v>68.405343880097718</v>
       </c>
       <c r="E117">
-        <f t="shared" si="58"/>
+        <f>E101*D2</f>
         <v>67.153063461395078</v>
       </c>
       <c r="F117">
-        <f t="shared" si="58"/>
+        <f>F101*E2</f>
         <v>65.894961294575467</v>
       </c>
       <c r="G117">
-        <f t="shared" si="58"/>
+        <f>G101*F2</f>
         <v>64.631099417151148</v>
       </c>
       <c r="H117">
-        <f t="shared" si="58"/>
+        <f>H101*G2</f>
         <v>63.361541137073736</v>
       </c>
       <c r="I117">
-        <f t="shared" si="58"/>
+        <f>I101*H2</f>
         <v>61.65653785333879</v>
       </c>
       <c r="J117">
-        <f t="shared" si="58"/>
+        <f>J101*I2</f>
         <v>59.968005769883867</v>
       </c>
       <c r="K117">
-        <f t="shared" si="58"/>
+        <f>K101*J2</f>
         <v>58.295897152462935</v>
       </c>
       <c r="L117">
-        <f t="shared" si="58"/>
+        <f>L101*K2</f>
         <v>56.640156563174976</v>
       </c>
       <c r="M117">
-        <f t="shared" si="58"/>
+        <f>M101*L2</f>
         <v>55.00072090811355</v>
       </c>
       <c r="N117">
-        <f t="shared" si="58"/>
+        <f>N101*M2</f>
         <v>55.111791955109659</v>
       </c>
       <c r="O117">
-        <f t="shared" si="58"/>
+        <f>O101*N2</f>
         <v>55.221041303228596</v>
       </c>
       <c r="P117">
-        <f t="shared" si="58"/>
+        <f>P101*O2</f>
         <v>55.328513029986425</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="58"/>
+        <f>Q101*P2</f>
         <v>55.434249814191332</v>
       </c>
       <c r="R117">
-        <f t="shared" si="58"/>
+        <f>R101*Q2</f>
         <v>55.53829299042345</v>
       </c>
       <c r="S117">
-        <f t="shared" si="58"/>
+        <f>S101*R2</f>
         <v>55.519054476441021</v>
       </c>
       <c r="T117">
-        <f t="shared" si="58"/>
+        <f>T101*S2</f>
         <v>55.50003654867146</v>
       </c>
       <c r="U117">
-        <f t="shared" si="58"/>
+        <f>U101*T2</f>
         <v>55.481235440652426</v>
       </c>
       <c r="V117">
-        <f t="shared" si="58"/>
+        <f>V101*U2</f>
         <v>55.462647471201414</v>
       </c>
       <c r="W117">
-        <f t="shared" si="58"/>
+        <f>W101*V2</f>
         <v>55.444269042002567</v>
       </c>
       <c r="X117">
-        <f t="shared" si="58"/>
+        <f>X101*W2</f>
         <v>55.566617424537355</v>
       </c>
       <c r="Y117">
-        <f t="shared" si="58"/>
+        <f>Y101*X2</f>
         <v>55.688599727335038</v>
       </c>
       <c r="Z117">
-        <f t="shared" si="58"/>
+        <f>Z101*Y2</f>
         <v>55.810209419003954</v>
       </c>
       <c r="AA117">
-        <f t="shared" si="58"/>
+        <f>AA101*Z2</f>
         <v>55.931448114783805</v>
       </c>
       <c r="AB117">
-        <f t="shared" si="58"/>
+        <f>AB101*AA2</f>
         <v>56.052317421007245</v>
       </c>
       <c r="AC117">
-        <f t="shared" si="58"/>
+        <f>AC101*AB2</f>
         <v>56.052317517385902</v>
       </c>
       <c r="AD117">
-        <f t="shared" si="58"/>
+        <f>AD101*AC2</f>
         <v>56.052317740118177</v>
       </c>
       <c r="AE117">
-        <f t="shared" si="58"/>
+        <f>AE101*AD2</f>
         <v>56.052318082035598</v>
       </c>
       <c r="AF117">
-        <f t="shared" si="58"/>
+        <f>AF101*AE2</f>
         <v>56.052318536449839</v>
       </c>
       <c r="AG117">
-        <f t="shared" si="58"/>
+        <f>AG101*AF2</f>
         <v>56.052319097113269</v>
       </c>
     </row>
-    <row r="118" spans="1:33" s="98" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="96" t="s">
+    <row r="118" spans="1:33" s="113" customFormat="1" ht="15.75">
+      <c r="A118" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="B118" s="97" t="s">
+      <c r="B118" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="C118" s="98">
+      <c r="C118" s="113">
         <f>B3*C102*C112</f>
         <v>53.304021866824961</v>
       </c>
-      <c r="D118" s="98">
+      <c r="D118" s="113">
         <f>C3*D102*D112</f>
         <v>52.155018482028517</v>
       </c>
-      <c r="E118" s="98">
-        <f t="shared" ref="E118:AG118" si="59">D3*E102*E112</f>
+      <c r="E118" s="113">
+        <f t="shared" ref="E118:AG118" si="58">D3*E102*E112</f>
         <v>51.277836879458782</v>
       </c>
-      <c r="F118" s="98">
-        <f t="shared" si="59"/>
+      <c r="F118" s="113">
+        <f t="shared" si="58"/>
         <v>50.34987839511178</v>
       </c>
-      <c r="G118" s="98">
-        <f t="shared" si="59"/>
+      <c r="G118" s="113">
+        <f t="shared" si="58"/>
         <v>49.409317984171402</v>
       </c>
-      <c r="H118" s="98">
-        <f t="shared" si="59"/>
+      <c r="H118" s="113">
+        <f t="shared" si="58"/>
         <v>48.442664362737659</v>
       </c>
-      <c r="I118" s="98">
-        <f t="shared" si="59"/>
+      <c r="I118" s="113">
+        <f t="shared" si="58"/>
         <v>47.808026257758918</v>
       </c>
-      <c r="J118" s="98">
-        <f t="shared" si="59"/>
+      <c r="J118" s="113">
+        <f t="shared" si="58"/>
         <v>47.186220905640262</v>
       </c>
-      <c r="K118" s="98">
-        <f t="shared" si="59"/>
+      <c r="K118" s="113">
+        <f t="shared" si="58"/>
         <v>46.576900169665052</v>
       </c>
-      <c r="L118" s="98">
-        <f t="shared" si="59"/>
+      <c r="L118" s="113">
+        <f t="shared" si="58"/>
         <v>45.975132659327556</v>
       </c>
-      <c r="M118" s="98">
-        <f t="shared" si="59"/>
+      <c r="M118" s="113">
+        <f t="shared" si="58"/>
         <v>45.362043357630569</v>
       </c>
-      <c r="N118" s="98">
-        <f t="shared" si="59"/>
+      <c r="N118" s="113">
+        <f t="shared" si="58"/>
         <v>45.567511626139769</v>
       </c>
-      <c r="O118" s="98">
-        <f t="shared" si="59"/>
+      <c r="O118" s="113">
+        <f t="shared" si="58"/>
         <v>45.788556878920801</v>
       </c>
-      <c r="P118" s="98">
-        <f t="shared" si="59"/>
+      <c r="P118" s="113">
+        <f t="shared" si="58"/>
         <v>46.00234845534608</v>
       </c>
-      <c r="Q118" s="98">
-        <f t="shared" si="59"/>
+      <c r="Q118" s="113">
+        <f t="shared" si="58"/>
         <v>46.210918943367602</v>
       </c>
-      <c r="R118" s="98">
-        <f t="shared" si="59"/>
+      <c r="R118" s="113">
+        <f t="shared" si="58"/>
         <v>46.420651933431621</v>
       </c>
-      <c r="S118" s="98">
-        <f t="shared" si="59"/>
+      <c r="S118" s="113">
+        <f t="shared" si="58"/>
         <v>46.730173109712759</v>
       </c>
-      <c r="T118" s="98">
-        <f t="shared" si="59"/>
+      <c r="T118" s="113">
+        <f t="shared" si="58"/>
         <v>47.044993988181922</v>
       </c>
-      <c r="U118" s="98">
-        <f t="shared" si="59"/>
+      <c r="U118" s="113">
+        <f t="shared" si="58"/>
         <v>47.342243651751318</v>
       </c>
-      <c r="V118" s="98">
-        <f t="shared" si="59"/>
+      <c r="V118" s="113">
+        <f t="shared" si="58"/>
         <v>47.66766743986048</v>
       </c>
-      <c r="W118" s="98">
-        <f t="shared" si="59"/>
+      <c r="W118" s="113">
+        <f t="shared" si="58"/>
         <v>47.998141783158182</v>
       </c>
-      <c r="X118" s="98">
-        <f t="shared" si="59"/>
+      <c r="X118" s="113">
+        <f t="shared" si="58"/>
         <v>48.200867151882065</v>
       </c>
-      <c r="Y118" s="98">
-        <f t="shared" si="59"/>
+      <c r="Y118" s="113">
+        <f t="shared" si="58"/>
         <v>48.400507821761643</v>
       </c>
-      <c r="Z118" s="98">
-        <f t="shared" si="59"/>
+      <c r="Z118" s="113">
+        <f t="shared" si="58"/>
         <v>48.604601230918732</v>
       </c>
-      <c r="AA118" s="98">
-        <f t="shared" si="59"/>
+      <c r="AA118" s="113">
+        <f t="shared" si="58"/>
         <v>48.809614035663294</v>
       </c>
-      <c r="AB118" s="98">
-        <f t="shared" si="59"/>
+      <c r="AB118" s="113">
+        <f t="shared" si="58"/>
         <v>49.009633942897182</v>
       </c>
-      <c r="AC118" s="98">
-        <f t="shared" si="59"/>
+      <c r="AC118" s="113">
+        <f t="shared" si="58"/>
         <v>49.312416471325243</v>
       </c>
-      <c r="AD118" s="98">
-        <f t="shared" si="59"/>
+      <c r="AD118" s="113">
+        <f t="shared" si="58"/>
         <v>49.615613646906461</v>
       </c>
-      <c r="AE118" s="98">
-        <f t="shared" si="59"/>
+      <c r="AE118" s="113">
+        <f t="shared" si="58"/>
         <v>49.916476278090919</v>
       </c>
-      <c r="AF118" s="98">
-        <f t="shared" si="59"/>
+      <c r="AF118" s="113">
+        <f t="shared" si="58"/>
         <v>50.213960108784036</v>
       </c>
-      <c r="AG118" s="98">
-        <f t="shared" si="59"/>
+      <c r="AG118" s="113">
+        <f t="shared" si="58"/>
         <v>50.50367386395402</v>
       </c>
     </row>
-    <row r="119" spans="1:33" s="98" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="96" t="s">
+    <row r="119" spans="1:33" s="113" customFormat="1" ht="15.75">
+      <c r="A119" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="B119" s="97" t="s">
+      <c r="B119" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="98">
+      <c r="C119" s="113">
         <f>B3*C102*C113</f>
         <v>54.355075119185805</v>
       </c>
-      <c r="D119" s="98">
+      <c r="D119" s="113">
         <f>C3*D102*D113</f>
         <v>53.183415587587142</v>
       </c>
-      <c r="E119" s="98">
-        <f t="shared" ref="E119:AG119" si="60">D3*E102*E113</f>
+      <c r="E119" s="113">
+        <f t="shared" ref="E119:AG119" si="59">D3*E102*E113</f>
         <v>51.7489926791635</v>
       </c>
-      <c r="F119" s="98">
-        <f t="shared" si="60"/>
+      <c r="F119" s="113">
+        <f t="shared" si="59"/>
         <v>50.374310792895571</v>
       </c>
-      <c r="G119" s="98">
-        <f t="shared" si="60"/>
+      <c r="G119" s="113">
+        <f t="shared" si="59"/>
         <v>49.021098730344441</v>
       </c>
-      <c r="H119" s="98">
-        <f t="shared" si="60"/>
+      <c r="H119" s="113">
+        <f t="shared" si="59"/>
         <v>47.702749573337883</v>
       </c>
-      <c r="I119" s="98">
-        <f t="shared" si="60"/>
+      <c r="I119" s="113">
+        <f t="shared" si="59"/>
         <v>46.712706674275829</v>
       </c>
-      <c r="J119" s="98">
-        <f t="shared" si="60"/>
+      <c r="J119" s="113">
+        <f t="shared" si="59"/>
         <v>45.684430144123361</v>
       </c>
-      <c r="K119" s="98">
-        <f t="shared" si="60"/>
+      <c r="K119" s="113">
+        <f t="shared" si="59"/>
         <v>44.618344228080957</v>
       </c>
-      <c r="L119" s="98">
-        <f t="shared" si="60"/>
+      <c r="L119" s="113">
+        <f t="shared" si="59"/>
         <v>43.519468310897793</v>
       </c>
-      <c r="M119" s="98">
-        <f t="shared" si="60"/>
+      <c r="M119" s="113">
+        <f t="shared" si="59"/>
         <v>42.406777215047157</v>
       </c>
-      <c r="N119" s="98">
-        <f t="shared" si="60"/>
+      <c r="N119" s="113">
+        <f t="shared" si="59"/>
         <v>42.033227981614651</v>
       </c>
-      <c r="O119" s="98">
-        <f t="shared" si="60"/>
+      <c r="O119" s="113">
+        <f t="shared" si="59"/>
         <v>41.646858494069562</v>
       </c>
-      <c r="P119" s="98">
-        <f t="shared" si="60"/>
+      <c r="P119" s="113">
+        <f t="shared" si="59"/>
         <v>41.27043271166562</v>
       </c>
-      <c r="Q119" s="98">
-        <f t="shared" si="60"/>
+      <c r="Q119" s="113">
+        <f t="shared" si="59"/>
         <v>40.901853461705699</v>
       </c>
-      <c r="R119" s="98">
-        <f t="shared" si="60"/>
+      <c r="R119" s="113">
+        <f t="shared" si="59"/>
         <v>40.534674603184207</v>
       </c>
-      <c r="S119" s="98">
-        <f t="shared" si="60"/>
+      <c r="S119" s="113">
+        <f t="shared" si="59"/>
         <v>40.254266576380921</v>
       </c>
-      <c r="T119" s="98">
-        <f t="shared" si="60"/>
+      <c r="T119" s="113">
+        <f t="shared" si="59"/>
         <v>39.96822503993473</v>
       </c>
-      <c r="U119" s="98">
-        <f t="shared" si="60"/>
+      <c r="U119" s="113">
+        <f t="shared" si="59"/>
         <v>39.699426610624215</v>
       </c>
-      <c r="V119" s="98">
-        <f t="shared" si="60"/>
+      <c r="V119" s="113">
+        <f t="shared" si="59"/>
         <v>39.40213151964889</v>
       </c>
-      <c r="W119" s="98">
-        <f t="shared" si="60"/>
+      <c r="W119" s="113">
+        <f t="shared" si="59"/>
         <v>39.099468781598993</v>
       </c>
-      <c r="X119" s="98">
-        <f t="shared" si="60"/>
+      <c r="X119" s="113">
+        <f t="shared" si="59"/>
         <v>38.711596745499477</v>
       </c>
-      <c r="Y119" s="98">
-        <f t="shared" si="60"/>
+      <c r="Y119" s="113">
+        <f t="shared" si="59"/>
         <v>38.327363387315437</v>
       </c>
-      <c r="Z119" s="98">
-        <f t="shared" si="60"/>
+      <c r="Z119" s="113">
+        <f t="shared" si="59"/>
         <v>37.939241152712441</v>
       </c>
-      <c r="AA119" s="98">
-        <f t="shared" si="60"/>
+      <c r="AA119" s="113">
+        <f t="shared" si="59"/>
         <v>37.550760941079794</v>
       </c>
-      <c r="AB119" s="98">
-        <f t="shared" si="60"/>
+      <c r="AB119" s="113">
+        <f t="shared" si="59"/>
         <v>37.167832614693609</v>
       </c>
-      <c r="AC119" s="98">
-        <f t="shared" si="60"/>
+      <c r="AC119" s="113">
+        <f t="shared" si="59"/>
         <v>36.865049940418224</v>
       </c>
-      <c r="AD119" s="98">
-        <f t="shared" si="60"/>
+      <c r="AD119" s="113">
+        <f t="shared" si="59"/>
         <v>36.561852427781936</v>
       </c>
-      <c r="AE119" s="98">
-        <f t="shared" si="60"/>
+      <c r="AE119" s="113">
+        <f t="shared" si="59"/>
         <v>36.26098927918266</v>
       </c>
-      <c r="AF119" s="98">
-        <f t="shared" si="60"/>
+      <c r="AF119" s="113">
+        <f t="shared" si="59"/>
         <v>35.96350476083613</v>
       </c>
-      <c r="AG119" s="98">
-        <f t="shared" si="60"/>
+      <c r="AG119" s="113">
+        <f t="shared" si="59"/>
         <v>35.673790157228566</v>
       </c>
     </row>
-    <row r="120" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" ht="15.75">
       <c r="A120" s="3" t="s">
         <v>104</v>
       </c>
@@ -55095,131 +55085,131 @@
         <v>Freight HDV</v>
       </c>
       <c r="C120">
-        <f t="shared" ref="C120:AG120" si="61">C103*B4</f>
+        <f>C103*B4</f>
         <v>55.633888302938409</v>
       </c>
       <c r="D120">
-        <f t="shared" si="61"/>
+        <f>D103*C4</f>
         <v>55.669202360246473</v>
       </c>
       <c r="E120">
-        <f t="shared" si="61"/>
+        <f>E103*D4</f>
         <v>55.620997456266807</v>
       </c>
       <c r="F120">
-        <f t="shared" si="61"/>
+        <f>F103*E4</f>
         <v>55.484335261845807</v>
       </c>
       <c r="G120">
-        <f t="shared" si="61"/>
+        <f>G103*F4</f>
         <v>55.254376094041554</v>
       </c>
       <c r="H120">
-        <f t="shared" si="61"/>
+        <f>H103*G4</f>
         <v>54.926430967111244</v>
       </c>
       <c r="I120">
-        <f t="shared" si="61"/>
+        <f>I103*H4</f>
         <v>54.33284293507856</v>
       </c>
       <c r="J120">
-        <f t="shared" si="61"/>
+        <f>J103*I4</f>
         <v>53.65022818064854</v>
       </c>
       <c r="K120">
-        <f t="shared" si="61"/>
+        <f>K103*J4</f>
         <v>52.876870138999905</v>
       </c>
       <c r="L120">
-        <f t="shared" si="61"/>
+        <f>L103*K4</f>
         <v>52.011203310904747</v>
       </c>
       <c r="M120">
-        <f t="shared" si="61"/>
+        <f>M103*L4</f>
         <v>51.051825741548299</v>
       </c>
       <c r="N120">
-        <f t="shared" si="61"/>
+        <f>N103*M4</f>
         <v>51.985107237942564</v>
       </c>
       <c r="O120">
-        <f t="shared" si="61"/>
+        <f>O103*N4</f>
         <v>52.903063174294616</v>
       </c>
       <c r="P120">
-        <f t="shared" si="61"/>
+        <f>P103*O4</f>
         <v>53.805731025450449</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="61"/>
+        <f>Q103*P4</f>
         <v>54.69315370179158</v>
       </c>
       <c r="R120">
-        <f t="shared" si="61"/>
+        <f>R103*Q4</f>
         <v>55.565379417587131</v>
       </c>
       <c r="S120">
-        <f t="shared" si="61"/>
+        <f>S103*R4</f>
         <v>56.284072481521378</v>
       </c>
       <c r="T120">
-        <f t="shared" si="61"/>
+        <f>T103*S4</f>
         <v>56.989254802837443</v>
       </c>
       <c r="U120">
-        <f t="shared" si="61"/>
+        <f>U103*T4</f>
         <v>57.68118808798679</v>
       </c>
       <c r="V120">
-        <f t="shared" si="61"/>
+        <f>V103*U4</f>
         <v>58.360128839886066</v>
       </c>
       <c r="W120">
-        <f t="shared" si="61"/>
+        <f>W103*V4</f>
         <v>59.02632845318027</v>
       </c>
       <c r="X120">
-        <f t="shared" si="61"/>
+        <f>X103*W4</f>
         <v>59.615919986244933</v>
       </c>
       <c r="Y120">
-        <f t="shared" si="61"/>
+        <f>Y103*X4</f>
         <v>60.17722546491602</v>
       </c>
       <c r="Z120">
-        <f t="shared" si="61"/>
+        <f>Z103*Y4</f>
         <v>60.726423671766206</v>
       </c>
       <c r="AA120">
-        <f t="shared" si="61"/>
+        <f>AA103*Z4</f>
         <v>61.263799593207757</v>
       </c>
       <c r="AB120">
-        <f t="shared" si="61"/>
+        <f>AB103*AA4</f>
         <v>61.789629352580214</v>
       </c>
       <c r="AC120">
-        <f t="shared" si="61"/>
+        <f>AC103*AB4</f>
         <v>62.29611376875544</v>
       </c>
       <c r="AD120">
-        <f t="shared" si="61"/>
+        <f>AD103*AC4</f>
         <v>62.792228658636922</v>
       </c>
       <c r="AE120">
-        <f t="shared" si="61"/>
+        <f>AE103*AD4</f>
         <v>63.278242149591421</v>
       </c>
       <c r="AF120">
-        <f t="shared" si="61"/>
+        <f>AF103*AE4</f>
         <v>63.75441376452337</v>
       </c>
       <c r="AG120">
-        <f t="shared" si="61"/>
+        <f>AG103*AF4</f>
         <v>64.220994753586197</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" ht="15.75">
       <c r="A121" s="3" t="s">
         <v>105</v>
       </c>
@@ -55228,131 +55218,131 @@
         <v>Freight HDV</v>
       </c>
       <c r="C121">
-        <f t="shared" ref="C121:AG121" si="62">C104*B5</f>
+        <f>C104*B5</f>
         <v>94.47671513876567</v>
       </c>
       <c r="D121">
-        <f t="shared" si="62"/>
+        <f>D104*C5</f>
         <v>90.954230220927244</v>
       </c>
       <c r="E121">
-        <f t="shared" si="62"/>
+        <f>E104*D5</f>
         <v>87.529403836024201</v>
       </c>
       <c r="F121">
-        <f t="shared" si="62"/>
+        <f>F104*E5</f>
         <v>84.197091694189581</v>
       </c>
       <c r="G121">
-        <f t="shared" si="62"/>
+        <f>G104*F5</f>
         <v>80.9516946117663</v>
       </c>
       <c r="H121">
-        <f t="shared" si="62"/>
+        <f>H104*G5</f>
         <v>77.78717802795687</v>
       </c>
       <c r="I121">
-        <f t="shared" si="62"/>
+        <f>I104*H5</f>
         <v>74.543172280479624</v>
       </c>
       <c r="J121">
-        <f t="shared" si="62"/>
+        <f>J104*I5</f>
         <v>71.347351879790509</v>
       </c>
       <c r="K121">
-        <f t="shared" si="62"/>
+        <f>K104*J5</f>
         <v>68.197715804196278</v>
       </c>
       <c r="L121">
-        <f t="shared" si="62"/>
+        <f>L104*K5</f>
         <v>65.092129376217898</v>
       </c>
       <c r="M121">
-        <f t="shared" si="62"/>
+        <f>M104*L5</f>
         <v>62.028328296526638</v>
       </c>
       <c r="N121">
-        <f t="shared" si="62"/>
+        <f>N104*M5</f>
         <v>61.735869714283773</v>
       </c>
       <c r="O121">
-        <f t="shared" si="62"/>
+        <f>O104*N5</f>
         <v>61.450542748043603</v>
       </c>
       <c r="P121">
-        <f t="shared" si="62"/>
+        <f>P104*O5</f>
         <v>61.172294065047296</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="62"/>
+        <f>Q104*P5</f>
         <v>60.901068358613152</v>
       </c>
       <c r="R121">
-        <f t="shared" si="62"/>
+        <f>R104*Q5</f>
         <v>60.636808423081277</v>
       </c>
       <c r="S121">
-        <f t="shared" si="62"/>
+        <f>S104*R5</f>
         <v>60.465726162349341</v>
       </c>
       <c r="T121">
-        <f t="shared" si="62"/>
+        <f>T104*S5</f>
         <v>60.29811180207362</v>
       </c>
       <c r="U121">
-        <f t="shared" si="62"/>
+        <f>U104*T5</f>
         <v>60.133891808100977</v>
       </c>
       <c r="V121">
-        <f t="shared" si="62"/>
+        <f>V104*U5</f>
         <v>59.972994281403807</v>
       </c>
       <c r="W121">
-        <f t="shared" si="62"/>
+        <f>W104*V5</f>
         <v>59.815348922101791</v>
       </c>
       <c r="X121">
-        <f t="shared" si="62"/>
+        <f>X104*W5</f>
         <v>59.618237569638055</v>
       </c>
       <c r="Y121">
-        <f t="shared" si="62"/>
+        <f>Y104*X5</f>
         <v>59.428937819381467</v>
       </c>
       <c r="Z121">
-        <f t="shared" si="62"/>
+        <f>Z104*Y5</f>
         <v>59.243229240298341</v>
       </c>
       <c r="AA121">
-        <f t="shared" si="62"/>
+        <f>AA104*Z5</f>
         <v>59.061028426944262</v>
       </c>
       <c r="AB121">
-        <f t="shared" si="62"/>
+        <f>AB104*AA5</f>
         <v>58.882254566791332</v>
       </c>
       <c r="AC121">
-        <f t="shared" si="62"/>
+        <f>AC104*AB5</f>
         <v>58.712961179625943</v>
       </c>
       <c r="AD121">
-        <f t="shared" si="62"/>
+        <f>AD104*AC5</f>
         <v>58.546812822802522</v>
       </c>
       <c r="AE121">
-        <f t="shared" si="62"/>
+        <f>AE104*AD5</f>
         <v>58.383731530826175</v>
       </c>
       <c r="AF121">
-        <f t="shared" si="62"/>
+        <f>AF104*AE5</f>
         <v>58.223641779259381</v>
       </c>
       <c r="AG121">
-        <f t="shared" si="62"/>
+        <f>AG104*AF5</f>
         <v>58.066470392180477</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" ht="15.75">
       <c r="A122" s="3" t="s">
         <v>106</v>
       </c>
@@ -55361,131 +55351,131 @@
         <v>Freight HDV</v>
       </c>
       <c r="C122">
-        <f t="shared" ref="C122:AG122" si="63">C105*B6</f>
+        <f>C105*B6</f>
         <v>659.59284421045106</v>
       </c>
       <c r="D122">
-        <f t="shared" si="63"/>
+        <f>D105*C6</f>
         <v>635.17128215792673</v>
       </c>
       <c r="E122">
-        <f t="shared" si="63"/>
+        <f>E105*D6</f>
         <v>610.77145755083734</v>
       </c>
       <c r="F122">
-        <f t="shared" si="63"/>
+        <f>F105*E6</f>
         <v>586.41665980216987</v>
       </c>
       <c r="G122">
-        <f t="shared" si="63"/>
+        <f>G105*F6</f>
         <v>562.13081485367525</v>
       </c>
       <c r="H122">
-        <f t="shared" si="63"/>
+        <f>H105*G6</f>
         <v>537.93830668895453</v>
       </c>
       <c r="I122">
-        <f t="shared" si="63"/>
+        <f>I105*H6</f>
         <v>514.54638033720175</v>
       </c>
       <c r="J122">
-        <f t="shared" si="63"/>
+        <f>J105*I6</f>
         <v>491.29521351057201</v>
       </c>
       <c r="K122">
-        <f t="shared" si="63"/>
+        <f>K105*J6</f>
         <v>468.19356000377155</v>
       </c>
       <c r="L122">
-        <f t="shared" si="63"/>
+        <f>L105*K6</f>
         <v>445.25004057107219</v>
       </c>
       <c r="M122">
-        <f t="shared" si="63"/>
+        <f>M105*L6</f>
         <v>422.47310089013445</v>
       </c>
       <c r="N122">
-        <f t="shared" si="63"/>
+        <f>N105*M6</f>
         <v>420.85786941866127</v>
       </c>
       <c r="O122">
-        <f t="shared" si="63"/>
+        <f>O105*N6</f>
         <v>419.26159648037464</v>
       </c>
       <c r="P122">
-        <f t="shared" si="63"/>
+        <f>P105*O6</f>
         <v>417.68436879348303</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="63"/>
+        <f>Q105*P6</f>
         <v>416.12626414931623</v>
       </c>
       <c r="R122">
-        <f t="shared" si="63"/>
+        <f>R105*Q6</f>
         <v>414.58735149957158</v>
       </c>
       <c r="S122">
-        <f t="shared" si="63"/>
+        <f>S105*R6</f>
         <v>413.24931956659549</v>
       </c>
       <c r="T122">
-        <f t="shared" si="63"/>
+        <f>T105*S6</f>
         <v>411.93482237992498</v>
       </c>
       <c r="U122">
-        <f t="shared" si="63"/>
+        <f>U105*T6</f>
         <v>410.64342757059234</v>
       </c>
       <c r="V122">
-        <f t="shared" si="63"/>
+        <f>V105*U6</f>
         <v>409.3747108681664</v>
       </c>
       <c r="W122">
-        <f t="shared" si="63"/>
+        <f>W105*V6</f>
         <v>408.12825596664248</v>
       </c>
       <c r="X122">
-        <f t="shared" si="63"/>
+        <f>X105*W6</f>
         <v>407.1554809251183</v>
       </c>
       <c r="Y122">
-        <f t="shared" si="63"/>
+        <f>Y105*X6</f>
         <v>406.23193255768859</v>
       </c>
       <c r="Z122">
-        <f t="shared" si="63"/>
+        <f>Z105*Y6</f>
         <v>405.3288541640751</v>
       </c>
       <c r="AA122">
-        <f t="shared" si="63"/>
+        <f>AA105*Z6</f>
         <v>404.44575973443358</v>
       </c>
       <c r="AB122">
-        <f t="shared" si="63"/>
+        <f>AB105*AA6</f>
         <v>403.58217838179917</v>
       </c>
       <c r="AC122">
-        <f t="shared" si="63"/>
+        <f>AC105*AB6</f>
         <v>402.75595818669683</v>
       </c>
       <c r="AD122">
-        <f t="shared" si="63"/>
+        <f>AD105*AC6</f>
         <v>401.94736215722946</v>
       </c>
       <c r="AE122">
-        <f t="shared" si="63"/>
+        <f>AE105*AD6</f>
         <v>401.15592734382062</v>
       </c>
       <c r="AF122">
-        <f t="shared" si="63"/>
+        <f>AF105*AE6</f>
         <v>400.38120578188415</v>
       </c>
       <c r="AG122">
-        <f t="shared" si="63"/>
+        <f>AG105*AF6</f>
         <v>399.62276391089085</v>
       </c>
     </row>
-    <row r="123" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" ht="15.75">
       <c r="A123" s="3" t="s">
         <v>107</v>
       </c>
@@ -55494,131 +55484,131 @@
         <v>Freight HDV</v>
       </c>
       <c r="C123">
-        <f t="shared" ref="C123:AG123" si="64">C106*B7</f>
+        <f>C106*B7</f>
         <v>1.8638843724121492</v>
       </c>
       <c r="D123">
-        <f t="shared" si="64"/>
+        <f>D106*C7</f>
         <v>1.8825069619827013</v>
       </c>
       <c r="E123">
-        <f t="shared" si="64"/>
+        <f>E106*D7</f>
         <v>1.900734319478333</v>
       </c>
       <c r="F123">
-        <f t="shared" si="64"/>
+        <f>F106*E7</f>
         <v>1.9183763659700317</v>
       </c>
       <c r="G123">
-        <f t="shared" si="64"/>
+        <f>G106*F7</f>
         <v>1.935222424126815</v>
       </c>
       <c r="H123">
-        <f t="shared" si="64"/>
+        <f>H106*G7</f>
         <v>1.9510407889931005</v>
       </c>
       <c r="I123">
-        <f t="shared" si="64"/>
+        <f>I106*H7</f>
         <v>1.9635953959192864</v>
       </c>
       <c r="J123">
-        <f t="shared" si="64"/>
+        <f>J106*I7</f>
         <v>1.9728146989027788</v>
       </c>
       <c r="K123">
-        <f t="shared" si="64"/>
+        <f>K106*J7</f>
         <v>1.9785117247699857</v>
       </c>
       <c r="L123">
-        <f t="shared" si="64"/>
+        <f>L106*K7</f>
         <v>1.980500794373649</v>
       </c>
       <c r="M123">
-        <f t="shared" si="64"/>
+        <f>M106*L7</f>
         <v>1.9785983042012205</v>
       </c>
       <c r="N123">
-        <f t="shared" si="64"/>
+        <f>N106*M7</f>
         <v>2.0421097239309183</v>
       </c>
       <c r="O123">
-        <f t="shared" si="64"/>
+        <f>O106*N7</f>
         <v>2.1059561889753446</v>
       </c>
       <c r="P123">
-        <f t="shared" si="64"/>
+        <f>P106*O7</f>
         <v>2.1701078863579237</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="64"/>
+        <f>Q106*P7</f>
         <v>2.2345354004701115</v>
       </c>
       <c r="R123">
-        <f t="shared" si="64"/>
+        <f>R106*Q7</f>
         <v>2.2992097387102599</v>
       </c>
       <c r="S123">
-        <f t="shared" si="64"/>
+        <f>S106*R7</f>
         <v>2.3417243276595285</v>
       </c>
       <c r="T123">
-        <f t="shared" si="64"/>
+        <f>T106*S7</f>
         <v>2.3839657101685114</v>
       </c>
       <c r="U123">
-        <f t="shared" si="64"/>
+        <f>U106*T7</f>
         <v>2.4259340761416346</v>
       </c>
       <c r="V123">
-        <f t="shared" si="64"/>
+        <f>V106*U7</f>
         <v>2.4676296840734873</v>
       </c>
       <c r="W123">
-        <f t="shared" si="64"/>
+        <f>W106*V7</f>
         <v>2.5090528587961813</v>
       </c>
       <c r="X123">
-        <f t="shared" si="64"/>
+        <f>X106*W7</f>
         <v>2.5383350613507778</v>
       </c>
       <c r="Y123">
-        <f t="shared" si="64"/>
+        <f>Y106*X7</f>
         <v>2.5665502881387141</v>
       </c>
       <c r="Z123">
-        <f t="shared" si="64"/>
+        <f>Z106*Y7</f>
         <v>2.5943594478463519</v>
       </c>
       <c r="AA123">
-        <f t="shared" si="64"/>
+        <f>AA106*Z7</f>
         <v>2.6217730107615789</v>
       </c>
       <c r="AB123">
-        <f t="shared" si="64"/>
+        <f>AB106*AA7</f>
         <v>2.6488011187194838</v>
       </c>
       <c r="AC123">
-        <f t="shared" si="64"/>
+        <f>AC106*AB7</f>
         <v>2.6694840570892522</v>
       </c>
       <c r="AD123">
-        <f t="shared" si="64"/>
+        <f>AD106*AC7</f>
         <v>2.6897108827046097</v>
       </c>
       <c r="AE123">
-        <f t="shared" si="64"/>
+        <f>AE106*AD7</f>
         <v>2.7094936504803879</v>
       </c>
       <c r="AF123">
-        <f t="shared" si="64"/>
+        <f>AF106*AE7</f>
         <v>2.7288440250951136</v>
       </c>
       <c r="AG123">
-        <f t="shared" si="64"/>
+        <f>AG106*AF7</f>
         <v>2.7477732960975203</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" ht="15.75">
       <c r="A124" s="3" t="s">
         <v>108</v>
       </c>
@@ -55627,131 +55617,131 @@
         <v>Passenger HDV</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:AG124" si="65">C107*B8</f>
+        <f>C107*B8</f>
         <v>14.213188382847221</v>
       </c>
       <c r="D124">
-        <f t="shared" si="65"/>
+        <f>D107*C8</f>
         <v>14.078043081441731</v>
       </c>
       <c r="E124">
-        <f t="shared" si="65"/>
+        <f>E107*D8</f>
         <v>13.943114052038192</v>
       </c>
       <c r="F124">
-        <f t="shared" si="65"/>
+        <f>F107*E8</f>
         <v>13.808397705797544</v>
       </c>
       <c r="G124">
-        <f t="shared" si="65"/>
+        <f>G107*F8</f>
         <v>13.673890242928115</v>
       </c>
       <c r="H124">
-        <f t="shared" si="65"/>
+        <f>H107*G8</f>
         <v>13.539587643342651</v>
       </c>
       <c r="I124">
-        <f t="shared" si="65"/>
+        <f>I107*H8</f>
         <v>13.440541412372941</v>
       </c>
       <c r="J124">
-        <f t="shared" si="65"/>
+        <f>J107*I8</f>
         <v>13.341285966355795</v>
       </c>
       <c r="K124">
-        <f t="shared" si="65"/>
+        <f>K107*J8</f>
         <v>13.241816880601329</v>
       </c>
       <c r="L124">
-        <f t="shared" si="65"/>
+        <f>L107*K8</f>
         <v>13.142129580657411</v>
       </c>
       <c r="M124">
-        <f t="shared" si="65"/>
+        <f>M107*L8</f>
         <v>13.042219335983376</v>
       </c>
       <c r="N124">
-        <f t="shared" si="65"/>
+        <f>N107*M8</f>
         <v>13.028573042080531</v>
       </c>
       <c r="O124">
-        <f t="shared" si="65"/>
+        <f>O107*N8</f>
         <v>13.014328761043148</v>
       </c>
       <c r="P124">
-        <f t="shared" si="65"/>
+        <f>P107*O8</f>
         <v>12.999476644387256</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="65"/>
+        <f>Q107*P8</f>
         <v>12.984006608112743</v>
       </c>
       <c r="R124">
-        <f t="shared" si="65"/>
+        <f>R107*Q8</f>
         <v>12.967908326054395</v>
       </c>
       <c r="S124">
-        <f t="shared" si="65"/>
+        <f>S107*R8</f>
         <v>12.997904383128807</v>
       </c>
       <c r="T124">
-        <f t="shared" si="65"/>
+        <f>T107*S8</f>
         <v>13.027687297517366</v>
       </c>
       <c r="U124">
-        <f t="shared" si="65"/>
+        <f>U107*T8</f>
         <v>13.057258916087493</v>
       </c>
       <c r="V124">
-        <f t="shared" si="65"/>
+        <f>V107*U8</f>
         <v>13.08662107075515</v>
       </c>
       <c r="W124">
-        <f t="shared" si="65"/>
+        <f>W107*V8</f>
         <v>13.115775578461323</v>
       </c>
       <c r="X124">
-        <f t="shared" si="65"/>
+        <f>X107*W8</f>
         <v>13.147497245935343</v>
       </c>
       <c r="Y124">
-        <f t="shared" si="65"/>
+        <f>Y107*X8</f>
         <v>13.179304231382698</v>
       </c>
       <c r="Z124">
-        <f t="shared" si="65"/>
+        <f>Z107*Y8</f>
         <v>13.211197945311413</v>
       </c>
       <c r="AA124">
-        <f t="shared" si="65"/>
+        <f>AA107*Z8</f>
         <v>13.243178612406309</v>
       </c>
       <c r="AB124">
-        <f t="shared" si="65"/>
+        <f>AB107*AA8</f>
         <v>13.275246458673314</v>
       </c>
       <c r="AC124">
-        <f t="shared" si="65"/>
+        <f>AC107*AB8</f>
         <v>13.267609567947382</v>
       </c>
       <c r="AD124">
-        <f t="shared" si="65"/>
+        <f>AD107*AC8</f>
         <v>13.259959324871861</v>
       </c>
       <c r="AE124">
-        <f t="shared" si="65"/>
+        <f>AE107*AD8</f>
         <v>13.252295696069099</v>
       </c>
       <c r="AF124">
-        <f t="shared" si="65"/>
+        <f>AF107*AE8</f>
         <v>13.244618648179582</v>
       </c>
       <c r="AG124">
-        <f t="shared" si="65"/>
+        <f>AG107*AF8</f>
         <v>13.236928147855561</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" ht="15.75">
       <c r="A125" s="3" t="s">
         <v>109</v>
       </c>
@@ -55760,131 +55750,131 @@
         <v>Passenger HDV</v>
       </c>
       <c r="C125">
-        <f t="shared" ref="C125:AG125" si="66">C108*B9</f>
+        <f>C108*B9</f>
         <v>66.77847192490951</v>
       </c>
       <c r="D125">
-        <f t="shared" si="66"/>
+        <f>D108*C9</f>
         <v>65.698337216983703</v>
       </c>
       <c r="E125">
-        <f t="shared" si="66"/>
+        <f>E108*D9</f>
         <v>64.643934355051599</v>
       </c>
       <c r="F125">
-        <f t="shared" si="66"/>
+        <f>F108*E9</f>
         <v>63.615540303918962</v>
       </c>
       <c r="G125">
-        <f t="shared" si="66"/>
+        <f>G108*F9</f>
         <v>62.613441476474875</v>
       </c>
       <c r="H125">
-        <f t="shared" si="66"/>
+        <f>H108*G9</f>
         <v>61.637934220390534</v>
       </c>
       <c r="I125">
-        <f t="shared" si="66"/>
+        <f>I108*H9</f>
         <v>60.768669924839998</v>
       </c>
       <c r="J125">
-        <f t="shared" si="66"/>
+        <f>J108*I9</f>
         <v>59.924125440277166</v>
       </c>
       <c r="K125">
-        <f t="shared" si="66"/>
+        <f>K108*J9</f>
         <v>59.104479507018965</v>
       </c>
       <c r="L125">
-        <f t="shared" si="66"/>
+        <f>L108*K9</f>
         <v>58.309916138310967</v>
       </c>
       <c r="M125">
-        <f t="shared" si="66"/>
+        <f>M108*L9</f>
         <v>57.540624843612832</v>
       </c>
       <c r="N125">
-        <f t="shared" si="66"/>
+        <f>N108*M9</f>
         <v>57.220318350386123</v>
       </c>
       <c r="O125">
-        <f t="shared" si="66"/>
+        <f>O108*N9</f>
         <v>56.920411431891537</v>
       </c>
       <c r="P125">
-        <f t="shared" si="66"/>
+        <f>P108*O9</f>
         <v>56.64128055751857</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="66"/>
+        <f>Q108*P9</f>
         <v>56.38331041399546</v>
       </c>
       <c r="R125">
-        <f t="shared" si="66"/>
+        <f>R108*Q9</f>
         <v>56.146894152268189</v>
       </c>
       <c r="S125">
-        <f t="shared" si="66"/>
+        <f>S108*R9</f>
         <v>56.123988847070933</v>
       </c>
       <c r="T125">
-        <f t="shared" si="66"/>
+        <f>T108*S9</f>
         <v>56.101282914677171</v>
       </c>
       <c r="U125">
-        <f t="shared" si="66"/>
+        <f>U108*T9</f>
         <v>56.078774805635724</v>
       </c>
       <c r="V125">
-        <f t="shared" si="66"/>
+        <f>V108*U9</f>
         <v>56.056462976318642</v>
       </c>
       <c r="W125">
-        <f t="shared" si="66"/>
+        <f>W108*V9</f>
         <v>56.034345889197596</v>
       </c>
       <c r="X125">
-        <f t="shared" si="66"/>
+        <f>X108*W9</f>
         <v>55.999524746347383</v>
       </c>
       <c r="Y125">
-        <f t="shared" si="66"/>
+        <f>Y108*X9</f>
         <v>55.964740148598736</v>
       </c>
       <c r="Z125">
-        <f t="shared" si="66"/>
+        <f>Z108*Y9</f>
         <v>55.929948098641219</v>
       </c>
       <c r="AA125">
-        <f t="shared" si="66"/>
+        <f>AA108*Z9</f>
         <v>55.895148966243923</v>
       </c>
       <c r="AB125">
-        <f t="shared" si="66"/>
+        <f>AB108*AA9</f>
         <v>55.860343125505089</v>
       </c>
       <c r="AC125">
-        <f t="shared" si="66"/>
+        <f>AC108*AB9</f>
         <v>55.839158376943026</v>
       </c>
       <c r="AD125">
-        <f t="shared" si="66"/>
+        <f>AD108*AC9</f>
         <v>55.817974770549284</v>
       </c>
       <c r="AE125">
-        <f t="shared" si="66"/>
+        <f>AE108*AD9</f>
         <v>55.796792408720862</v>
       </c>
       <c r="AF125">
-        <f t="shared" si="66"/>
+        <f>AF108*AE9</f>
         <v>55.775611395121274</v>
       </c>
       <c r="AG125">
-        <f t="shared" si="66"/>
+        <f>AG108*AF9</f>
         <v>55.754431834656017</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" ht="15.75">
       <c r="A126" s="3" t="s">
         <v>110</v>
       </c>
@@ -55893,131 +55883,131 @@
         <v>Passenger HDV</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:AG126" si="67">C109*B10</f>
+        <f>C109*B10</f>
         <v>49.8257686669794</v>
       </c>
       <c r="D126">
-        <f t="shared" si="67"/>
+        <f>D109*C10</f>
         <v>49.620049400820548</v>
       </c>
       <c r="E126">
-        <f t="shared" si="67"/>
+        <f>E109*D10</f>
         <v>49.411296648755588</v>
       </c>
       <c r="F126">
-        <f t="shared" si="67"/>
+        <f>F109*E10</f>
         <v>49.199478606171169</v>
       </c>
       <c r="G126">
-        <f t="shared" si="67"/>
+        <f>G109*F10</f>
         <v>48.984562264382674</v>
       </c>
       <c r="H126">
-        <f t="shared" si="67"/>
+        <f>H109*G10</f>
         <v>48.766513351694549</v>
       </c>
       <c r="I126">
-        <f t="shared" si="67"/>
+        <f>I109*H10</f>
         <v>48.49801524069445</v>
       </c>
       <c r="J126">
-        <f t="shared" si="67"/>
+        <f>J109*I10</f>
         <v>48.227259135956352</v>
       </c>
       <c r="K126">
-        <f t="shared" si="67"/>
+        <f>K109*J10</f>
         <v>47.954225091993365</v>
       </c>
       <c r="L126">
-        <f t="shared" si="67"/>
+        <f>L109*K10</f>
         <v>47.678892562158303</v>
       </c>
       <c r="M126">
-        <f t="shared" si="67"/>
+        <f>M109*L10</f>
         <v>47.40124037315752</v>
       </c>
       <c r="N126">
-        <f t="shared" si="67"/>
+        <f>N109*M10</f>
         <v>47.42510311242193</v>
       </c>
       <c r="O126">
-        <f t="shared" si="67"/>
+        <f>O109*N10</f>
         <v>47.446349150481382</v>
       </c>
       <c r="P126">
-        <f t="shared" si="67"/>
+        <f>P109*O10</f>
         <v>47.464934844092255</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="67"/>
+        <f>Q109*P10</f>
         <v>47.480815531736489</v>
       </c>
       <c r="R126">
-        <f t="shared" si="67"/>
+        <f>R109*Q10</f>
         <v>47.493945504240862</v>
       </c>
       <c r="S126">
-        <f t="shared" si="67"/>
+        <f>S109*R10</f>
         <v>47.471306752856272</v>
       </c>
       <c r="T126">
-        <f t="shared" si="67"/>
+        <f>T109*S10</f>
         <v>47.448675287057071</v>
       </c>
       <c r="U126">
-        <f t="shared" si="67"/>
+        <f>U109*T10</f>
         <v>47.42605243545448</v>
       </c>
       <c r="V126">
-        <f t="shared" si="67"/>
+        <f>V109*U10</f>
         <v>47.403439492019949</v>
       </c>
       <c r="W126">
-        <f t="shared" si="67"/>
+        <f>W109*V10</f>
         <v>47.38083771693028</v>
       </c>
       <c r="X126">
-        <f t="shared" si="67"/>
+        <f>X109*W10</f>
         <v>47.382830918529777</v>
       </c>
       <c r="Y126">
-        <f t="shared" si="67"/>
+        <f>Y109*X10</f>
         <v>47.384832103424628</v>
       </c>
       <c r="Z126">
-        <f t="shared" si="67"/>
+        <f>Z109*Y10</f>
         <v>47.386823134775902</v>
       </c>
       <c r="AA126">
-        <f t="shared" si="67"/>
+        <f>AA109*Z10</f>
         <v>47.38880395808264</v>
       </c>
       <c r="AB126">
-        <f t="shared" si="67"/>
+        <f>AB109*AA10</f>
         <v>47.390774518029964</v>
       </c>
       <c r="AC126">
-        <f t="shared" si="67"/>
+        <f>AC109*AB10</f>
         <v>47.396065470946724</v>
       </c>
       <c r="AD126">
-        <f t="shared" si="67"/>
+        <f>AD109*AC10</f>
         <v>47.401360125855383</v>
       </c>
       <c r="AE126">
-        <f t="shared" si="67"/>
+        <f>AE109*AD10</f>
         <v>47.40665847757738</v>
       </c>
       <c r="AF126">
-        <f t="shared" si="67"/>
+        <f>AF109*AE10</f>
         <v>47.411960520724897</v>
       </c>
       <c r="AG126">
-        <f t="shared" si="67"/>
+        <f>AG109*AF10</f>
         <v>47.417266249708035</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" ht="15.75">
       <c r="A127" s="3" t="s">
         <v>111</v>
       </c>
@@ -56026,134 +56016,134 @@
         <v>Passenger HDV</v>
       </c>
       <c r="C127">
-        <f t="shared" ref="C127:AG127" si="68">C110*B11</f>
+        <f>C110*B11</f>
         <v>315.94377106041452</v>
       </c>
       <c r="D127">
-        <f t="shared" si="68"/>
+        <f>D110*C11</f>
         <v>315.37492009739714</v>
       </c>
       <c r="E127">
-        <f t="shared" si="68"/>
+        <f>E110*D11</f>
         <v>314.77736648371416</v>
       </c>
       <c r="F127">
-        <f t="shared" si="68"/>
+        <f>F110*E11</f>
         <v>314.15083090848896</v>
       </c>
       <c r="G127">
-        <f t="shared" si="68"/>
+        <f>G110*F11</f>
         <v>313.49502547761267</v>
       </c>
       <c r="H127">
-        <f t="shared" si="68"/>
+        <f>H110*G11</f>
         <v>312.80965325138862</v>
       </c>
       <c r="I127">
-        <f t="shared" si="68"/>
+        <f>I110*H11</f>
         <v>311.95557577314037</v>
       </c>
       <c r="J127">
-        <f t="shared" si="68"/>
+        <f>J110*I11</f>
         <v>311.07392228968484</v>
       </c>
       <c r="K127">
-        <f t="shared" si="68"/>
+        <f>K110*J11</f>
         <v>310.16452049616777</v>
       </c>
       <c r="L127">
-        <f t="shared" si="68"/>
+        <f>L110*K11</f>
         <v>309.22719314458249</v>
       </c>
       <c r="M127">
-        <f t="shared" si="68"/>
+        <f>M110*L11</f>
         <v>308.2617578344562</v>
       </c>
       <c r="N127">
-        <f t="shared" si="68"/>
+        <f>N110*M11</f>
         <v>308.72999503672645</v>
       </c>
       <c r="O127">
-        <f t="shared" si="68"/>
+        <f>O110*N11</f>
         <v>309.18077240665434</v>
       </c>
       <c r="P127">
-        <f t="shared" si="68"/>
+        <f>P110*O11</f>
         <v>309.61374360333713</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="68"/>
+        <f>Q110*P11</f>
         <v>310.02855508818931</v>
       </c>
       <c r="R127">
-        <f t="shared" si="68"/>
+        <f>R110*Q11</f>
         <v>310.42484590174865</v>
       </c>
       <c r="S127">
-        <f t="shared" si="68"/>
+        <f>S110*R11</f>
         <v>310.37578447586145</v>
       </c>
       <c r="T127">
-        <f t="shared" si="68"/>
+        <f>T110*S11</f>
         <v>310.32759346967816</v>
       </c>
       <c r="U127">
-        <f t="shared" si="68"/>
+        <f>U110*T11</f>
         <v>310.28025984638532</v>
       </c>
       <c r="V127">
-        <f t="shared" si="68"/>
+        <f>V110*U11</f>
         <v>310.23377077450999</v>
       </c>
       <c r="W127">
-        <f t="shared" si="68"/>
+        <f>W110*V11</f>
         <v>310.18811362446206</v>
       </c>
       <c r="X127">
-        <f t="shared" si="68"/>
+        <f>X110*W11</f>
         <v>310.05474720473188</v>
       </c>
       <c r="Y127">
-        <f t="shared" si="68"/>
+        <f>Y110*X11</f>
         <v>309.92081663414712</v>
       </c>
       <c r="Z127">
-        <f t="shared" si="68"/>
+        <f>Z110*Y11</f>
         <v>309.78644820620997</v>
       </c>
       <c r="AA127">
-        <f t="shared" si="68"/>
+        <f>AA110*Z11</f>
         <v>309.65164030795989</v>
       </c>
       <c r="AB127">
-        <f t="shared" si="68"/>
+        <f>AB110*AA11</f>
         <v>309.51639131556806</v>
       </c>
       <c r="AC127">
-        <f t="shared" si="68"/>
+        <f>AC110*AB11</f>
         <v>309.57124527403232</v>
       </c>
       <c r="AD127">
-        <f t="shared" si="68"/>
+        <f>AD110*AC11</f>
         <v>309.62615861796769</v>
       </c>
       <c r="AE127">
-        <f t="shared" si="68"/>
+        <f>AE110*AD11</f>
         <v>309.68113140048519</v>
       </c>
       <c r="AF127">
-        <f t="shared" si="68"/>
+        <f>AF110*AE11</f>
         <v>309.7361636734779</v>
       </c>
       <c r="AG127">
-        <f t="shared" si="68"/>
+        <f>AG110*AF11</f>
         <v>309.79125548766564</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" ht="15.75">
       <c r="A129" s="2" t="s">
         <v>170</v>
       </c>
@@ -56251,394 +56241,394 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33">
       <c r="A130" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C130" s="83">
-        <f t="shared" ref="C130:L132" si="69">SUMIFS(C$117:C$127,$B$117:$B$127,$A130)</f>
+        <f>SUMIFS(C$117:C$127,$B$117:$B$127,$A130)</f>
         <v>122.95576366291621</v>
       </c>
       <c r="D130" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(D$117:D$127,$B$117:$B$127,$A130)</f>
         <v>120.56036236212623</v>
       </c>
       <c r="E130" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(E$117:E$127,$B$117:$B$127,$A130)</f>
         <v>118.43090034085387</v>
       </c>
       <c r="F130" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(F$117:F$127,$B$117:$B$127,$A130)</f>
         <v>116.24483968968724</v>
       </c>
       <c r="G130" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(G$117:G$127,$B$117:$B$127,$A130)</f>
         <v>114.04041740132254</v>
       </c>
       <c r="H130" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(H$117:H$127,$B$117:$B$127,$A130)</f>
         <v>111.80420549981139</v>
       </c>
       <c r="I130" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(I$117:I$127,$B$117:$B$127,$A130)</f>
         <v>109.4645641110977</v>
       </c>
       <c r="J130" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(J$117:J$127,$B$117:$B$127,$A130)</f>
         <v>107.15422667552413</v>
       </c>
       <c r="K130" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(K$117:K$127,$B$117:$B$127,$A130)</f>
         <v>104.87279732212798</v>
       </c>
       <c r="L130" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(L$117:L$127,$B$117:$B$127,$A130)</f>
         <v>102.61528922250253</v>
       </c>
       <c r="M130" s="83">
-        <f t="shared" ref="M130:V132" si="70">SUMIFS(M$117:M$127,$B$117:$B$127,$A130)</f>
+        <f>SUMIFS(M$117:M$127,$B$117:$B$127,$A130)</f>
         <v>100.36276426574412</v>
       </c>
       <c r="N130" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(N$117:N$127,$B$117:$B$127,$A130)</f>
         <v>100.67930358124943</v>
       </c>
       <c r="O130" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(O$117:O$127,$B$117:$B$127,$A130)</f>
         <v>101.0095981821494</v>
       </c>
       <c r="P130" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(P$117:P$127,$B$117:$B$127,$A130)</f>
         <v>101.33086148533251</v>
       </c>
       <c r="Q130" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(Q$117:Q$127,$B$117:$B$127,$A130)</f>
         <v>101.64516875755893</v>
       </c>
       <c r="R130" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(R$117:R$127,$B$117:$B$127,$A130)</f>
         <v>101.95894492385507</v>
       </c>
       <c r="S130" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(S$117:S$127,$B$117:$B$127,$A130)</f>
         <v>102.24922758615378</v>
       </c>
       <c r="T130" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(T$117:T$127,$B$117:$B$127,$A130)</f>
         <v>102.54503053685337</v>
       </c>
       <c r="U130" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(U$117:U$127,$B$117:$B$127,$A130)</f>
         <v>102.82347909240374</v>
       </c>
       <c r="V130" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(V$117:V$127,$B$117:$B$127,$A130)</f>
         <v>103.1303149110619</v>
       </c>
       <c r="W130" s="83">
-        <f t="shared" ref="W130:AG132" si="71">SUMIFS(W$117:W$127,$B$117:$B$127,$A130)</f>
+        <f>SUMIFS(W$117:W$127,$B$117:$B$127,$A130)</f>
         <v>103.44241082516075</v>
       </c>
       <c r="X130" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(X$117:X$127,$B$117:$B$127,$A130)</f>
         <v>103.76748457641942</v>
       </c>
       <c r="Y130" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(Y$117:Y$127,$B$117:$B$127,$A130)</f>
         <v>104.08910754909668</v>
       </c>
       <c r="Z130" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(Z$117:Z$127,$B$117:$B$127,$A130)</f>
         <v>104.41481064992269</v>
       </c>
       <c r="AA130" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AA$117:AA$127,$B$117:$B$127,$A130)</f>
         <v>104.74106215044711</v>
       </c>
       <c r="AB130" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AB$117:AB$127,$B$117:$B$127,$A130)</f>
         <v>105.06195136390443</v>
       </c>
       <c r="AC130" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AC$117:AC$127,$B$117:$B$127,$A130)</f>
         <v>105.36473398871115</v>
       </c>
       <c r="AD130" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AD$117:AD$127,$B$117:$B$127,$A130)</f>
         <v>105.66793138702464</v>
       </c>
       <c r="AE130" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AE$117:AE$127,$B$117:$B$127,$A130)</f>
         <v>105.96879436012651</v>
       </c>
       <c r="AF130" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AF$117:AF$127,$B$117:$B$127,$A130)</f>
         <v>106.26627864523388</v>
       </c>
       <c r="AG130" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AG$117:AG$127,$B$117:$B$127,$A130)</f>
         <v>106.55599296106729</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33">
       <c r="A131" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C131" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(C$117:C$127,$B$117:$B$127,$A131)</f>
         <v>865.92240714375305</v>
       </c>
       <c r="D131" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(D$117:D$127,$B$117:$B$127,$A131)</f>
         <v>836.8606372886702</v>
       </c>
       <c r="E131" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(E$117:E$127,$B$117:$B$127,$A131)</f>
         <v>807.57158584177023</v>
       </c>
       <c r="F131" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(F$117:F$127,$B$117:$B$127,$A131)</f>
         <v>778.39077391707087</v>
       </c>
       <c r="G131" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(G$117:G$127,$B$117:$B$127,$A131)</f>
         <v>749.29320671395431</v>
       </c>
       <c r="H131" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(H$117:H$127,$B$117:$B$127,$A131)</f>
         <v>720.30570604635352</v>
       </c>
       <c r="I131" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(I$117:I$127,$B$117:$B$127,$A131)</f>
         <v>692.098697622955</v>
       </c>
       <c r="J131" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(J$117:J$127,$B$117:$B$127,$A131)</f>
         <v>663.95003841403718</v>
       </c>
       <c r="K131" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(K$117:K$127,$B$117:$B$127,$A131)</f>
         <v>635.86500189981871</v>
       </c>
       <c r="L131" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(L$117:L$127,$B$117:$B$127,$A131)</f>
         <v>607.85334236346625</v>
       </c>
       <c r="M131" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(M$117:M$127,$B$117:$B$127,$A131)</f>
         <v>579.93863044745774</v>
       </c>
       <c r="N131" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(N$117:N$127,$B$117:$B$127,$A131)</f>
         <v>578.65418407643324</v>
       </c>
       <c r="O131" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(O$117:O$127,$B$117:$B$127,$A131)</f>
         <v>577.36801708575786</v>
       </c>
       <c r="P131" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(P$117:P$127,$B$117:$B$127,$A131)</f>
         <v>576.10293448200434</v>
       </c>
       <c r="Q131" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(Q$117:Q$127,$B$117:$B$127,$A131)</f>
         <v>574.85687507189675</v>
       </c>
       <c r="R131" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(R$117:R$127,$B$117:$B$127,$A131)</f>
         <v>573.62342368213444</v>
       </c>
       <c r="S131" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(S$117:S$127,$B$117:$B$127,$A131)</f>
         <v>572.59510911450673</v>
       </c>
       <c r="T131" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(T$117:T$127,$B$117:$B$127,$A131)</f>
         <v>571.57437973493927</v>
       </c>
       <c r="U131" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(U$117:U$127,$B$117:$B$127,$A131)</f>
         <v>570.58386815344591</v>
       </c>
       <c r="V131" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(V$117:V$127,$B$117:$B$127,$A131)</f>
         <v>569.57759519317869</v>
       </c>
       <c r="W131" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(W$117:W$127,$B$117:$B$127,$A131)</f>
         <v>568.57845498231973</v>
       </c>
       <c r="X131" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(X$117:X$127,$B$117:$B$127,$A131)</f>
         <v>567.63957028785148</v>
       </c>
       <c r="Y131" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(Y$117:Y$127,$B$117:$B$127,$A131)</f>
         <v>566.73200951744025</v>
       </c>
       <c r="Z131" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(Z$117:Z$127,$B$117:$B$127,$A131)</f>
         <v>565.83210767669846</v>
       </c>
       <c r="AA131" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AA$117:AA$127,$B$117:$B$127,$A131)</f>
         <v>564.94312170642695</v>
       </c>
       <c r="AB131" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AB$117:AB$127,$B$117:$B$127,$A131)</f>
         <v>564.07069603458376</v>
       </c>
       <c r="AC131" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AC$117:AC$127,$B$117:$B$127,$A131)</f>
         <v>563.29956713258571</v>
       </c>
       <c r="AD131" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AD$117:AD$127,$B$117:$B$127,$A131)</f>
         <v>562.53796694915548</v>
       </c>
       <c r="AE131" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AE$117:AE$127,$B$117:$B$127,$A131)</f>
         <v>561.78838395390119</v>
       </c>
       <c r="AF131" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AF$117:AF$127,$B$117:$B$127,$A131)</f>
         <v>561.05161011159805</v>
       </c>
       <c r="AG131" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AG$117:AG$127,$B$117:$B$127,$A131)</f>
         <v>560.33179250998364</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33">
       <c r="A132" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C132" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(C$117:C$127,$B$117:$B$127,$A132)</f>
         <v>446.76120003515064</v>
       </c>
       <c r="D132" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(D$117:D$127,$B$117:$B$127,$A132)</f>
         <v>444.77134979664311</v>
       </c>
       <c r="E132" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(E$117:E$127,$B$117:$B$127,$A132)</f>
         <v>442.77571153955955</v>
       </c>
       <c r="F132" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(F$117:F$127,$B$117:$B$127,$A132)</f>
         <v>440.77424752437662</v>
       </c>
       <c r="G132" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(G$117:G$127,$B$117:$B$127,$A132)</f>
         <v>438.76691946139834</v>
       </c>
       <c r="H132" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(H$117:H$127,$B$117:$B$127,$A132)</f>
         <v>436.75368846681636</v>
       </c>
       <c r="I132" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(I$117:I$127,$B$117:$B$127,$A132)</f>
         <v>434.66280235104773</v>
       </c>
       <c r="J132" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(J$117:J$127,$B$117:$B$127,$A132)</f>
         <v>432.56659283227418</v>
       </c>
       <c r="K132" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(K$117:K$127,$B$117:$B$127,$A132)</f>
         <v>430.46504197578145</v>
       </c>
       <c r="L132" s="83">
-        <f t="shared" si="69"/>
+        <f>SUMIFS(L$117:L$127,$B$117:$B$127,$A132)</f>
         <v>428.35813142570919</v>
       </c>
       <c r="M132" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(M$117:M$127,$B$117:$B$127,$A132)</f>
         <v>426.2458423872099</v>
       </c>
       <c r="N132" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(N$117:N$127,$B$117:$B$127,$A132)</f>
         <v>426.40398954161503</v>
       </c>
       <c r="O132" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(O$117:O$127,$B$117:$B$127,$A132)</f>
         <v>426.56186175007042</v>
       </c>
       <c r="P132" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(P$117:P$127,$B$117:$B$127,$A132)</f>
         <v>426.7194356493352</v>
       </c>
       <c r="Q132" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(Q$117:Q$127,$B$117:$B$127,$A132)</f>
         <v>426.87668764203397</v>
       </c>
       <c r="R132" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(R$117:R$127,$B$117:$B$127,$A132)</f>
         <v>427.0335938843121</v>
       </c>
       <c r="S132" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(S$117:S$127,$B$117:$B$127,$A132)</f>
         <v>426.96898445891748</v>
       </c>
       <c r="T132" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(T$117:T$127,$B$117:$B$127,$A132)</f>
         <v>426.90523896892978</v>
       </c>
       <c r="U132" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(U$117:U$127,$B$117:$B$127,$A132)</f>
         <v>426.84234600356302</v>
       </c>
       <c r="V132" s="83">
-        <f t="shared" si="70"/>
+        <f>SUMIFS(V$117:V$127,$B$117:$B$127,$A132)</f>
         <v>426.78029431360369</v>
       </c>
       <c r="W132" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(W$117:W$127,$B$117:$B$127,$A132)</f>
         <v>426.71907280905123</v>
       </c>
       <c r="X132" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(X$117:X$127,$B$117:$B$127,$A132)</f>
         <v>426.58460011554439</v>
       </c>
       <c r="Y132" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(Y$117:Y$127,$B$117:$B$127,$A132)</f>
         <v>426.44969311755318</v>
       </c>
       <c r="Z132" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(Z$117:Z$127,$B$117:$B$127,$A132)</f>
         <v>426.31441738493851</v>
       </c>
       <c r="AA132" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AA$117:AA$127,$B$117:$B$127,$A132)</f>
         <v>426.17877184469273</v>
       </c>
       <c r="AB132" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AB$117:AB$127,$B$117:$B$127,$A132)</f>
         <v>426.04275541777645</v>
       </c>
       <c r="AC132" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AC$117:AC$127,$B$117:$B$127,$A132)</f>
         <v>426.07407868986945</v>
       </c>
       <c r="AD132" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AD$117:AD$127,$B$117:$B$127,$A132)</f>
         <v>426.10545283924421</v>
       </c>
       <c r="AE132" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AE$117:AE$127,$B$117:$B$127,$A132)</f>
         <v>426.13687798285252</v>
       </c>
       <c r="AF132" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AF$117:AF$127,$B$117:$B$127,$A132)</f>
         <v>426.16835423750365</v>
       </c>
       <c r="AG132" s="83">
-        <f t="shared" si="71"/>
+        <f>SUMIFS(AG$117:AG$127,$B$117:$B$127,$A132)</f>
         <v>426.19988171988524</v>
       </c>
     </row>
-    <row r="134" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" ht="15.75">
       <c r="A134" s="2" t="s">
         <v>171</v>
       </c>
@@ -56736,7 +56726,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33">
       <c r="A135" s="3" t="s">
         <v>119</v>
       </c>
@@ -56748,123 +56738,123 @@
         <v>1.9481813860771857E-2</v>
       </c>
       <c r="E135" s="82">
-        <f t="shared" ref="E135:AG137" si="72">1-(E130/D130)</f>
+        <f t="shared" ref="E135:AG137" si="60">1-(E130/D130)</f>
         <v>1.7663036005782007E-2</v>
       </c>
       <c r="F135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.8458532738288458E-2</v>
       </c>
       <c r="G135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.89636141634274E-2</v>
       </c>
       <c r="H135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.9608941745992037E-2</v>
       </c>
       <c r="I135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>2.0926237776607071E-2</v>
       </c>
       <c r="J135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>2.1105802177486144E-2</v>
       </c>
       <c r="K135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>2.1291081315015115E-2</v>
       </c>
       <c r="L135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>2.1526155087589371E-2</v>
       </c>
       <c r="M135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>2.1951163163163923E-2</v>
       </c>
       <c r="N135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.153951745162864E-3</v>
       </c>
       <c r="O135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.2806603656472255E-3</v>
       </c>
       <c r="P135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.1805225341434706E-3</v>
       </c>
       <c r="Q135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.1017921649854063E-3</v>
       </c>
       <c r="R135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.0869757031399825E-3</v>
       </c>
       <c r="S135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-2.8470543954284278E-3</v>
       </c>
       <c r="T135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-2.8929602470626481E-3</v>
       </c>
       <c r="U135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-2.7153783473718995E-3</v>
       </c>
       <c r="V135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-2.9841026715544672E-3</v>
       </c>
       <c r="W135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.0262286541837824E-3</v>
       </c>
       <c r="X135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.1425577639341284E-3</v>
       </c>
       <c r="Y135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.0994581201435611E-3</v>
       </c>
       <c r="Z135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.1290795789786774E-3</v>
       </c>
       <c r="AA135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.1245711072374061E-3</v>
       </c>
       <c r="AB135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.063642919683307E-3</v>
       </c>
       <c r="AC135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-2.8819436615827865E-3</v>
       </c>
       <c r="AD135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-2.8775984794491283E-3</v>
       </c>
       <c r="AE135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-2.8472495784923613E-3</v>
       </c>
       <c r="AF135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-2.8072819635598378E-3</v>
       </c>
       <c r="AG135" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-2.7263052731958393E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33">
       <c r="A136" s="3" t="s">
         <v>117</v>
       </c>
@@ -56872,127 +56862,127 @@
         <v>0</v>
       </c>
       <c r="D136" s="82">
-        <f t="shared" ref="D136:S137" si="73">1-(D131/C131)</f>
+        <f t="shared" ref="D136:S137" si="61">1-(D131/C131)</f>
         <v>3.356163279218416E-2</v>
       </c>
       <c r="E136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>3.4998720386458904E-2</v>
       </c>
       <c r="F136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>3.6134025065137521E-2</v>
       </c>
       <c r="G136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>3.738169590151974E-2</v>
       </c>
       <c r="H136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>3.8686458662459011E-2</v>
       </c>
       <c r="I136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>3.9159773671962772E-2</v>
       </c>
       <c r="J136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>4.0671452360184546E-2</v>
       </c>
       <c r="K136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>4.2299924526406518E-2</v>
       </c>
       <c r="L136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>4.4052840544235083E-2</v>
       </c>
       <c r="M136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>4.5923432463939484E-2</v>
       </c>
       <c r="N136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>2.2147970553944019E-3</v>
       </c>
       <c r="O136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>2.2226867550058094E-3</v>
       </c>
       <c r="P136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>2.1911199898791978E-3</v>
       </c>
       <c r="Q136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>2.162911062461359E-3</v>
       </c>
       <c r="R136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>2.1456669359796177E-3</v>
       </c>
       <c r="S136" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>1.7926648828718861E-3</v>
       </c>
       <c r="T136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.7826372655295186E-3</v>
       </c>
       <c r="U136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.7329530794447656E-3</v>
       </c>
       <c r="V136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.7635846655177367E-3</v>
       </c>
       <c r="W136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.754177515567612E-3</v>
       </c>
       <c r="X136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.6512843324276716E-3</v>
       </c>
       <c r="Y136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.5988328120800643E-3</v>
       </c>
       <c r="Z136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.5878789721230913E-3</v>
       </c>
       <c r="AA136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.5711126290123278E-3</v>
       </c>
       <c r="AB136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.5442716944813473E-3</v>
       </c>
       <c r="AC136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.3670784662616065E-3</v>
       </c>
       <c r="AD136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.3520340292592081E-3</v>
       </c>
       <c r="AE136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.3325020519406872E-3</v>
       </c>
       <c r="AF136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.3114793102656508E-3</v>
       </c>
       <c r="AG136" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.2829792993040989E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33">
       <c r="A137" s="3" t="s">
         <v>118</v>
       </c>
@@ -57000,123 +56990,123 @@
         <v>0</v>
       </c>
       <c r="D137" s="82">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>4.4539459522244806E-3</v>
       </c>
       <c r="E137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>4.4868858077211637E-3</v>
       </c>
       <c r="F137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>4.5202660467162925E-3</v>
       </c>
       <c r="G137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>4.5540956039344938E-3</v>
       </c>
       <c r="H137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>4.588383730143808E-3</v>
       </c>
       <c r="I137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>4.7873347632357843E-3</v>
       </c>
       <c r="J137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>4.8226107857294309E-3</v>
       </c>
       <c r="K137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>4.8583290788422051E-3</v>
       </c>
       <c r="L137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>4.8944986110877053E-3</v>
       </c>
       <c r="M137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>4.9311286130344634E-3</v>
       </c>
       <c r="N137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.7102333601524151E-4</v>
       </c>
       <c r="O137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.7024092721349433E-4</v>
       </c>
       <c r="P137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.6940456565504043E-4</v>
       </c>
       <c r="Q137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.6851378109714616E-4</v>
       </c>
       <c r="R137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-3.6756807485738285E-4</v>
       </c>
       <c r="S137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.5129822646253732E-4</v>
       </c>
       <c r="T137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.4929770617522209E-4</v>
       </c>
       <c r="U137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.4732301135178538E-4</v>
       </c>
       <c r="V137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.4537379090973079E-4</v>
       </c>
       <c r="W137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.4344969851742828E-4</v>
       </c>
       <c r="X137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>3.1513166876184773E-4</v>
       </c>
       <c r="Y137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>3.1624910499505887E-4</v>
       </c>
       <c r="Z137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>3.1721381161220474E-4</v>
       </c>
       <c r="AA137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>3.1818192093491238E-4</v>
       </c>
       <c r="AB137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>3.1915345367283798E-4</v>
       </c>
       <c r="AC137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-7.3521428764378172E-5</v>
       </c>
       <c r="AD137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-7.3635433235574865E-5</v>
       </c>
       <c r="AE137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-7.3749686606783271E-5</v>
       </c>
       <c r="AF137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-7.3864188427252842E-5</v>
       </c>
       <c r="AG137" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>-7.3978938295304886E-5</v>
       </c>
     </row>
@@ -57136,12 +57126,12 @@
       <selection sqref="A1:AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -57239,7 +57229,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -57368,7 +57358,7 @@
         <v>5.5925664622652749E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -57497,7 +57487,7 @@
         <v>-7.3978938295304886E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -57595,7 +57585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -57693,7 +57683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -57791,7 +57781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -57905,9 +57895,9 @@
       <selection activeCell="I5" sqref="A1:AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -58005,7 +57995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -58134,7 +58124,7 @@
         <v>5.3868678908547199E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -58263,7 +58253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -58361,7 +58351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -58459,7 +58449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -58557,7 +58547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -58671,9 +58661,9 @@
       <selection activeCell="B3" sqref="A1:AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -58771,7 +58761,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -58900,7 +58890,7 @@
         <v>-2.7263052731958393E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -59029,7 +59019,7 @@
         <v>1.2829792993040989E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -59127,7 +59117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -59225,7 +59215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -59323,7 +59313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -59437,9 +59427,9 @@
       <selection activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -59537,7 +59527,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -59635,7 +59625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -59733,7 +59723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -59831,7 +59821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -59929,7 +59919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -60027,7 +60017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>177</v>
       </c>
